--- a/PCSWMM_multipanelscatterplot.xlsx
+++ b/PCSWMM_multipanelscatterplot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\webbe\Box\Marissa's Research\MARISA 2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwebber\Downloads\figuresforfloodmodeling-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9FF0ED-871D-4B98-B4BA-136D3F39C4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F58DEDE-762C-4853-A289-B0686587E4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{212B6A43-FAA1-4C16-B995-EE0666159BAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{212B6A43-FAA1-4C16-B995-EE0666159BAF}"/>
   </bookViews>
   <sheets>
     <sheet name="A003" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="P002" sheetId="2" r:id="rId4"/>
     <sheet name="D011" sheetId="6" r:id="rId5"/>
     <sheet name="A009" sheetId="7" r:id="rId6"/>
-    <sheet name="X - RMSE for A003 calibrated" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="12">
   <si>
     <t>Event summary for All graphed Total inflow (mgd) time series (58 events)</t>
   </si>
@@ -82,39 +81,6 @@
   </si>
   <si>
     <t>Duration (h)</t>
-  </si>
-  <si>
-    <t>MH174A003 (obs) (mgd)</t>
-  </si>
-  <si>
-    <t>MH174P002 (obs) (mgd)</t>
-  </si>
-  <si>
-    <t>MH174A003 (mgd)</t>
-  </si>
-  <si>
-    <t>MH174B023 (mgd)</t>
-  </si>
-  <si>
-    <t>MH174B023 (obs) (mgd)</t>
-  </si>
-  <si>
-    <t>MH174K027 (mgd)</t>
-  </si>
-  <si>
-    <t>MH174K027 (obs) (mgd)</t>
-  </si>
-  <si>
-    <t>MH174P002 (mgd)</t>
-  </si>
-  <si>
-    <t>MH125D011 (mgd)</t>
-  </si>
-  <si>
-    <t>MH175A009 (mgd)</t>
-  </si>
-  <si>
-    <t>MH175A009 (obs) (mgd)</t>
   </si>
   <si>
     <t>Obs</t>
@@ -139,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,14 +115,6 @@
     </font>
     <font>
       <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -184,12 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -37616,31 +37573,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C87CA7-5469-45CE-9F0B-E6CA57E777B7}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C45" zoomScale="66" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="C45" zoomScale="66" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.81640625" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -37654,22 +37611,22 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -37695,7 +37652,7 @@
         <v>1.831E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -37721,7 +37678,7 @@
         <v>4.6019999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -37747,7 +37704,7 @@
         <v>4.573E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -37773,7 +37730,7 @@
         <v>3.065E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -37799,7 +37756,7 @@
         <v>3.4770000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -37825,7 +37782,7 @@
         <v>4.2229999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -37851,7 +37808,7 @@
         <v>2.2950000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -37877,7 +37834,7 @@
         <v>6.0749999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -37903,7 +37860,7 @@
         <v>1.345E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -37929,7 +37886,7 @@
         <v>4.7739999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -37955,7 +37912,7 @@
         <v>5.042E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -37981,7 +37938,7 @@
         <v>5.3269999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -38007,7 +37964,7 @@
         <v>1.3010000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -38033,7 +37990,7 @@
         <v>3.576E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -38059,7 +38016,7 @@
         <v>2.7279999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -38085,7 +38042,7 @@
         <v>3.5630000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -38111,7 +38068,7 @@
         <v>4.564E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -38137,7 +38094,7 @@
         <v>0.1724</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -38163,7 +38120,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -38189,7 +38146,7 @@
         <v>0.46110000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -38215,7 +38172,7 @@
         <v>0.1181</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -38241,7 +38198,7 @@
         <v>9.468E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
@@ -38267,7 +38224,7 @@
         <v>2.2159999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
@@ -38293,7 +38250,7 @@
         <v>2.9510000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
@@ -38319,7 +38276,7 @@
         <v>3.8469999999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -38345,7 +38302,7 @@
         <v>0.15479999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>27</v>
       </c>
@@ -38371,7 +38328,7 @@
         <v>0.22259999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>28</v>
       </c>
@@ -38397,7 +38354,7 @@
         <v>4.0390000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>29</v>
       </c>
@@ -38423,7 +38380,7 @@
         <v>0.13270000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>30</v>
       </c>
@@ -38449,7 +38406,7 @@
         <v>0.1166</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>31</v>
       </c>
@@ -38475,7 +38432,7 @@
         <v>2.5579999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>32</v>
       </c>
@@ -38501,7 +38458,7 @@
         <v>1.3299999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>33</v>
       </c>
@@ -38527,7 +38484,7 @@
         <v>4.1140000000000003E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>34</v>
       </c>
@@ -38553,7 +38510,7 @@
         <v>0.23050000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>35</v>
       </c>
@@ -38579,7 +38536,7 @@
         <v>3.6130000000000002E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>36</v>
       </c>
@@ -38605,7 +38562,7 @@
         <v>6.3409999999999994E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>37</v>
       </c>
@@ -38631,7 +38588,7 @@
         <v>2.4830000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>38</v>
       </c>
@@ -38657,7 +38614,7 @@
         <v>1.4159999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>39</v>
       </c>
@@ -38683,7 +38640,7 @@
         <v>5.3859999999999998E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>40</v>
       </c>
@@ -38709,7 +38666,7 @@
         <v>9.1859999999999997E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>41</v>
       </c>
@@ -38735,7 +38692,7 @@
         <v>5.3949999999999998E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>42</v>
       </c>
@@ -38761,7 +38718,7 @@
         <v>6.7210000000000006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>43</v>
       </c>
@@ -38787,7 +38744,7 @@
         <v>4.6589999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>44</v>
       </c>
@@ -38813,7 +38770,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>45</v>
       </c>
@@ -38839,7 +38796,7 @@
         <v>4.24E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>46</v>
       </c>
@@ -38865,7 +38822,7 @@
         <v>5.1979999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>47</v>
       </c>
@@ -38891,7 +38848,7 @@
         <v>0.11020000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>48</v>
       </c>
@@ -38917,7 +38874,7 @@
         <v>9.7180000000000002E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>49</v>
       </c>
@@ -38943,7 +38900,7 @@
         <v>3.3099999999999997E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>50</v>
       </c>
@@ -38969,7 +38926,7 @@
         <v>7.4179999999999996E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>51</v>
       </c>
@@ -38995,7 +38952,7 @@
         <v>3.6859999999999997E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>52</v>
       </c>
@@ -39021,7 +38978,7 @@
         <v>8.1680000000000003E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>53</v>
       </c>
@@ -39047,7 +39004,7 @@
         <v>3.492E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>54</v>
       </c>
@@ -39073,7 +39030,7 @@
         <v>9.0469999999999995E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>55</v>
       </c>
@@ -39101,7 +39058,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>56</v>
       </c>
@@ -39129,7 +39086,7 @@
         <v>5.8630000000000002E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>57</v>
       </c>
@@ -39157,7 +39114,7 @@
         <v>8.8299999999999993E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>58</v>
       </c>
@@ -39185,7 +39142,7 @@
         <v>5.1150000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G64" cm="1">
         <f t="array" ref="G64">SQRT(SUMSQ($F$6:$F$59-G6:G59) / COUNTA($F$6:$F$59))</f>
         <v>0.20609986751536705</v>
@@ -39203,7 +39160,7 @@
         <v>0.20459107170574109</v>
       </c>
       <c r="K64" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -39220,24 +39177,24 @@
       <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -39251,22 +39208,22 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -39292,7 +39249,7 @@
         <v>0.2903</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -39318,7 +39275,7 @@
         <v>0.76880000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -39344,7 +39301,7 @@
         <v>0.72919999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -39370,7 +39327,7 @@
         <v>0.52680000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -39396,7 +39353,7 @@
         <v>0.50380000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -39422,7 +39379,7 @@
         <v>0.63949999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -39448,7 +39405,7 @@
         <v>0.35959999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -39474,7 +39431,7 @@
         <v>0.99739999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -39500,7 +39457,7 @@
         <v>0.21820000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -39526,7 +39483,7 @@
         <v>0.75509999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -39552,7 +39509,7 @@
         <v>0.76690000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -39578,7 +39535,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -39604,7 +39561,7 @@
         <v>0.3004</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -39630,7 +39587,7 @@
         <v>0.55669999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -39656,7 +39613,7 @@
         <v>0.4148</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -39682,7 +39639,7 @@
         <v>0.62370000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -39708,7 +39665,7 @@
         <v>0.6835</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -39734,7 +39691,7 @@
         <v>2.5529999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -39760,7 +39717,7 @@
         <v>3.5510000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -39786,7 +39743,7 @@
         <v>8.4160000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -39812,7 +39769,7 @@
         <v>1.7829999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -39838,7 +39795,7 @@
         <v>1.4590000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
@@ -39864,7 +39821,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
@@ -39890,7 +39847,7 @@
         <v>0.43780000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
@@ -39916,7 +39873,7 @@
         <v>0.58960000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -39942,7 +39899,7 @@
         <v>2.2360000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>27</v>
       </c>
@@ -39968,7 +39925,7 @@
         <v>3.851</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>28</v>
       </c>
@@ -39994,7 +39951,7 @@
         <v>0.65639999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>29</v>
       </c>
@@ -40020,7 +39977,7 @@
         <v>2.1230000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>30</v>
       </c>
@@ -40046,7 +40003,7 @@
         <v>1.7569999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>31</v>
       </c>
@@ -40072,7 +40029,7 @@
         <v>0.33150000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>32</v>
       </c>
@@ -40098,7 +40055,7 @@
         <v>0.15409999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>33</v>
       </c>
@@ -40124,7 +40081,7 @@
         <v>0.59419999999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>34</v>
       </c>
@@ -40150,7 +40107,7 @@
         <v>3.258</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>35</v>
       </c>
@@ -40176,7 +40133,7 @@
         <v>0.49270000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>36</v>
       </c>
@@ -40202,7 +40159,7 @@
         <v>0.90620000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>37</v>
       </c>
@@ -40228,7 +40185,7 @@
         <v>0.39929999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>38</v>
       </c>
@@ -40254,7 +40211,7 @@
         <v>19.04</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>39</v>
       </c>
@@ -40280,7 +40237,7 @@
         <v>0.81040000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>40</v>
       </c>
@@ -40306,7 +40263,7 @@
         <v>1.377</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>41</v>
       </c>
@@ -40332,7 +40289,7 @@
         <v>0.86129999999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>42</v>
       </c>
@@ -40358,7 +40315,7 @@
         <v>0.96250000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>43</v>
       </c>
@@ -40384,7 +40341,7 @@
         <v>0.67069999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>44</v>
       </c>
@@ -40410,7 +40367,7 @@
         <v>20.02</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>45</v>
       </c>
@@ -40436,7 +40393,7 @@
         <v>0.67400000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>46</v>
       </c>
@@ -40462,7 +40419,7 @@
         <v>0.77329999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>47</v>
       </c>
@@ -40488,7 +40445,7 @@
         <v>1.5860000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>48</v>
       </c>
@@ -40514,7 +40471,7 @@
         <v>1.3540000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>49</v>
       </c>
@@ -40540,7 +40497,7 @@
         <v>0.52459999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>50</v>
       </c>
@@ -40566,7 +40523,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>51</v>
       </c>
@@ -40592,7 +40549,7 @@
         <v>0.52749999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>52</v>
       </c>
@@ -40618,7 +40575,7 @@
         <v>1.1679999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>53</v>
       </c>
@@ -40644,7 +40601,7 @@
         <v>0.47810000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>54</v>
       </c>
@@ -40670,7 +40627,7 @@
         <v>1.3740000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>55</v>
       </c>
@@ -40697,7 +40654,7 @@
         <v>0.65369999999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>56</v>
       </c>
@@ -40724,7 +40681,7 @@
         <v>0.87829999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>57</v>
       </c>
@@ -40751,7 +40708,7 @@
         <v>7.1239999999999998E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>58</v>
       </c>
@@ -40778,7 +40735,7 @@
         <v>0.7167</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G64" cm="1">
         <f t="array" ref="G64">SQRT(SUMSQ($F$6:$F$59-G6:G59) / COUNTA($F$6:$F$59))</f>
         <v>2.1865739238039166</v>
@@ -40810,24 +40767,24 @@
       <selection activeCell="G64" sqref="G64:J64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -40841,22 +40798,22 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -40882,7 +40839,7 @@
         <v>0.47410000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -40908,7 +40865,7 @@
         <v>1.966</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -40934,7 +40891,7 @@
         <v>1.6279999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -40960,7 +40917,7 @@
         <v>1.1519999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -40986,7 +40943,7 @@
         <v>1.0940000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -41012,7 +40969,7 @@
         <v>1.1479999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -41038,7 +40995,7 @@
         <v>0.83930000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -41064,7 +41021,7 @@
         <v>2.3959999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -41090,7 +41047,7 @@
         <v>0.46889999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -41116,7 +41073,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -41142,7 +41099,7 @@
         <v>1.7929999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -41168,7 +41125,7 @@
         <v>2.1819999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -41194,7 +41151,7 @@
         <v>0.55879999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -41220,7 +41177,7 @@
         <v>1.1679999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -41246,7 +41203,7 @@
         <v>0.88249999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -41272,7 +41229,7 @@
         <v>1.504</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -41298,7 +41255,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -41324,7 +41281,7 @@
         <v>4.2279999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -41350,7 +41307,7 @@
         <v>7.2539999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -41376,7 +41333,7 @@
         <v>8.2560000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -41402,7 +41359,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -41428,7 +41385,7 @@
         <v>3.1259999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
@@ -41454,7 +41411,7 @@
         <v>0.82120000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
@@ -41480,7 +41437,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
@@ -41506,7 +41463,7 @@
         <v>1.349</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -41532,7 +41489,7 @@
         <v>2.9929999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>27</v>
       </c>
@@ -41558,7 +41515,7 @@
         <v>5.0039999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>28</v>
       </c>
@@ -41584,7 +41541,7 @@
         <v>1.5289999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>29</v>
       </c>
@@ -41610,7 +41567,7 @@
         <v>5.1609999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>30</v>
       </c>
@@ -41636,7 +41593,7 @@
         <v>3.1680000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>31</v>
       </c>
@@ -41662,7 +41619,7 @@
         <v>0.67620000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>32</v>
       </c>
@@ -41688,7 +41645,7 @@
         <v>0.38629999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>33</v>
       </c>
@@ -41714,7 +41671,7 @@
         <v>0.92879999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>34</v>
       </c>
@@ -41740,7 +41697,7 @@
         <v>9.8970000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>35</v>
       </c>
@@ -41766,7 +41723,7 @@
         <v>0.94630000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>36</v>
       </c>
@@ -41792,7 +41749,7 @@
         <v>2.8860000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>37</v>
       </c>
@@ -41818,7 +41775,7 @@
         <v>0.99139999999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>38</v>
       </c>
@@ -41844,7 +41801,7 @@
         <v>15.39</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>39</v>
       </c>
@@ -41870,7 +41827,7 @@
         <v>1.9139999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>40</v>
       </c>
@@ -41896,7 +41853,7 @@
         <v>2.2069999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>41</v>
       </c>
@@ -41922,7 +41879,7 @@
         <v>1.861</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>42</v>
       </c>
@@ -41948,7 +41905,7 @@
         <v>2.0459999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>43</v>
       </c>
@@ -41974,7 +41931,7 @@
         <v>0.68089999999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>44</v>
       </c>
@@ -42000,7 +41957,7 @@
         <v>25.96</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>45</v>
       </c>
@@ -42026,7 +41983,7 @@
         <v>1.5580000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>46</v>
       </c>
@@ -42052,7 +42009,7 @@
         <v>1.381</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>47</v>
       </c>
@@ -42078,7 +42035,7 @@
         <v>5.0060000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>48</v>
       </c>
@@ -42104,7 +42061,7 @@
         <v>1.6319999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>49</v>
       </c>
@@ -42130,7 +42087,7 @@
         <v>0.93669999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>50</v>
       </c>
@@ -42156,7 +42113,7 @@
         <v>2.6480000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>51</v>
       </c>
@@ -42182,7 +42139,7 @@
         <v>1.8089999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>52</v>
       </c>
@@ -42208,7 +42165,7 @@
         <v>2.3170000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>53</v>
       </c>
@@ -42234,7 +42191,7 @@
         <v>1.5009999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>54</v>
       </c>
@@ -42260,7 +42217,7 @@
         <v>3.427</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>55</v>
       </c>
@@ -42287,7 +42244,7 @@
         <v>1.889</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>56</v>
       </c>
@@ -42314,7 +42271,7 @@
         <v>2.3540000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>57</v>
       </c>
@@ -42341,7 +42298,7 @@
         <v>0.1779</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>58</v>
       </c>
@@ -42368,7 +42325,7 @@
         <v>1.534</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G64" cm="1">
         <f t="array" ref="G64">SQRT(SUMSQ($F$6:$F$59-G6:G59) / COUNTA($F$6:$F$59))</f>
         <v>7.1348282600343769</v>
@@ -42400,24 +42357,24 @@
       <selection activeCell="G64" sqref="G64:J64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -42431,22 +42388,22 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -42472,7 +42429,7 @@
         <v>1.9139999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -42498,7 +42455,7 @@
         <v>12.51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -42524,7 +42481,7 @@
         <v>8.7210000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -42550,7 +42507,7 @@
         <v>7.04</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -42576,7 +42533,7 @@
         <v>5.4660000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -42602,7 +42559,7 @@
         <v>5.532</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -42628,7 +42585,7 @@
         <v>4.077</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -42654,7 +42611,7 @@
         <v>14.13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -42680,7 +42637,7 @@
         <v>1.8779999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -42706,7 +42663,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -42732,7 +42689,7 @@
         <v>9.3770000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -42758,7 +42715,7 @@
         <v>11.06</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -42784,7 +42741,7 @@
         <v>3.1080000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -42810,7 +42767,7 @@
         <v>6.7249999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -42836,7 +42793,7 @@
         <v>4.6180000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -42862,7 +42819,7 @@
         <v>8.2260000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -42888,7 +42845,7 @@
         <v>8.0969999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -42914,7 +42871,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -42940,7 +42897,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -42966,7 +42923,7 @@
         <v>24.37</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -42992,7 +42949,7 @@
         <v>11.08</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -43018,7 +42975,7 @@
         <v>14.24</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
@@ -43044,7 +43001,7 @@
         <v>5.1509999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
@@ -43070,7 +43027,7 @@
         <v>4.0590000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
@@ -43096,7 +43053,7 @@
         <v>7.827</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -43122,7 +43079,7 @@
         <v>12.78</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>27</v>
       </c>
@@ -43148,7 +43105,7 @@
         <v>26.81</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>28</v>
       </c>
@@ -43174,7 +43131,7 @@
         <v>8.3689999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>29</v>
       </c>
@@ -43200,7 +43157,7 @@
         <v>19.77</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>30</v>
       </c>
@@ -43226,7 +43183,7 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>31</v>
       </c>
@@ -43252,7 +43209,7 @@
         <v>3.4660000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>32</v>
       </c>
@@ -43278,7 +43235,7 @@
         <v>2.4529999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>33</v>
       </c>
@@ -43304,7 +43261,7 @@
         <v>3.1110000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>34</v>
       </c>
@@ -43330,7 +43287,7 @@
         <v>43.49</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>35</v>
       </c>
@@ -43356,7 +43313,7 @@
         <v>3.6190000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>36</v>
       </c>
@@ -43382,7 +43339,7 @@
         <v>17.62</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>37</v>
       </c>
@@ -43408,7 +43365,7 @@
         <v>6.6870000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>38</v>
       </c>
@@ -43434,7 +43391,7 @@
         <v>39.08</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>39</v>
       </c>
@@ -43460,7 +43417,7 @@
         <v>9.1890000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>40</v>
       </c>
@@ -43486,7 +43443,7 @@
         <v>7.42</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>41</v>
       </c>
@@ -43512,7 +43469,7 @@
         <v>19.02</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>42</v>
       </c>
@@ -43538,7 +43495,7 @@
         <v>10.98</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>43</v>
       </c>
@@ -43564,7 +43521,7 @@
         <v>4.0709999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>44</v>
       </c>
@@ -43590,7 +43547,7 @@
         <v>63.01</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>45</v>
       </c>
@@ -43616,7 +43573,7 @@
         <v>8.9239999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>46</v>
       </c>
@@ -43642,7 +43599,7 @@
         <v>2.5209999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>47</v>
       </c>
@@ -43668,7 +43625,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>48</v>
       </c>
@@ -43694,7 +43651,7 @@
         <v>8.7490000000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>49</v>
       </c>
@@ -43720,7 +43677,7 @@
         <v>3.6619999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>50</v>
       </c>
@@ -43746,7 +43703,7 @@
         <v>13.55</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>51</v>
       </c>
@@ -43772,7 +43729,7 @@
         <v>11.56</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>52</v>
       </c>
@@ -43798,7 +43755,7 @@
         <v>10.64</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>53</v>
       </c>
@@ -43824,7 +43781,7 @@
         <v>5.3810000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>54</v>
       </c>
@@ -43850,7 +43807,7 @@
         <v>15.21</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>55</v>
       </c>
@@ -43877,7 +43834,7 @@
         <v>11.18</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>56</v>
       </c>
@@ -43904,7 +43861,7 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>57</v>
       </c>
@@ -43931,7 +43888,7 @@
         <v>0.57679999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>58</v>
       </c>
@@ -43958,7 +43915,7 @@
         <v>7.8620000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G64" cm="1">
         <f t="array" ref="G64">SQRT(SUMSQ($F$6:$F$59-G6:G59) / COUNTA($F$6:$F$59))</f>
         <v>4.1435546870343636</v>
@@ -43990,24 +43947,24 @@
       <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -44021,22 +43978,22 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -44062,7 +44019,7 @@
         <v>0.9254</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -44088,7 +44045,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -44114,7 +44071,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -44140,7 +44097,7 @@
         <v>1.927</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -44166,7 +44123,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -44192,7 +44149,7 @@
         <v>1.825</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -44218,7 +44175,7 @@
         <v>1.1850000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -44244,7 +44201,7 @@
         <v>3.415</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -44270,7 +44227,7 @@
         <v>0.73550000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -44296,7 +44253,7 @@
         <v>2.7240000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -44322,7 +44279,7 @@
         <v>2.7080000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -44348,7 +44305,7 @@
         <v>3.274</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -44374,7 +44331,7 @@
         <v>0.98570000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -44400,7 +44357,7 @@
         <v>1.8340000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -44426,7 +44383,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -44452,7 +44409,7 @@
         <v>2.3090000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -44478,7 +44435,7 @@
         <v>2.2080000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -44504,7 +44461,7 @@
         <v>7.3869999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -44530,7 +44487,7 @@
         <v>11.38</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -44556,7 +44513,7 @@
         <v>19.239999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -44582,7 +44539,7 @@
         <v>4.5270000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -44608,7 +44565,7 @@
         <v>4.5839999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
@@ -44634,7 +44591,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
@@ -44660,7 +44617,7 @@
         <v>1.2450000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
@@ -44686,7 +44643,7 @@
         <v>2.1230000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -44712,7 +44669,7 @@
         <v>6.09</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>27</v>
       </c>
@@ -44738,7 +44695,7 @@
         <v>9.6769999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>28</v>
       </c>
@@ -44764,7 +44721,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>29</v>
       </c>
@@ -44790,7 +44747,7 @@
         <v>6.8159999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>30</v>
       </c>
@@ -44816,7 +44773,7 @@
         <v>5.5250000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>31</v>
       </c>
@@ -44842,7 +44799,7 @@
         <v>1.0580000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>32</v>
       </c>
@@ -44868,7 +44825,7 @@
         <v>0.51590000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>33</v>
       </c>
@@ -44894,7 +44851,7 @@
         <v>1.393</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>34</v>
       </c>
@@ -44920,7 +44877,7 @@
         <v>11.28</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>35</v>
       </c>
@@ -44946,7 +44903,7 @@
         <v>1.425</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>36</v>
       </c>
@@ -44972,7 +44929,7 @@
         <v>3.4710000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>37</v>
       </c>
@@ -44998,7 +44955,7 @@
         <v>1.4950000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>38</v>
       </c>
@@ -45024,7 +44981,7 @@
         <v>37.340000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>39</v>
       </c>
@@ -45050,7 +45007,7 @@
         <v>2.548</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>40</v>
       </c>
@@ -45076,7 +45033,7 @@
         <v>3.5569999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>41</v>
       </c>
@@ -45102,7 +45059,7 @@
         <v>1.8720000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>42</v>
       </c>
@@ -45128,7 +45085,7 @@
         <v>3.1030000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>43</v>
       </c>
@@ -45154,7 +45111,7 @@
         <v>1.256</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>44</v>
       </c>
@@ -45180,7 +45137,7 @@
         <v>50.02</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>45</v>
       </c>
@@ -45206,7 +45163,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>46</v>
       </c>
@@ -45232,7 +45189,7 @@
         <v>2.0249999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>47</v>
       </c>
@@ -45258,7 +45215,7 @@
         <v>5.2469999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>48</v>
       </c>
@@ -45284,7 +45241,7 @@
         <v>3.1659999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>49</v>
       </c>
@@ -45310,7 +45267,7 @@
         <v>1.484</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>50</v>
       </c>
@@ -45336,7 +45293,7 @@
         <v>4.0979999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>51</v>
       </c>
@@ -45362,7 +45319,7 @@
         <v>1.744</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>52</v>
       </c>
@@ -45388,7 +45345,7 @@
         <v>3.6619999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>53</v>
       </c>
@@ -45414,7 +45371,7 @@
         <v>1.712</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>54</v>
       </c>
@@ -45440,7 +45397,7 @@
         <v>4.2160000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>55</v>
       </c>
@@ -45467,7 +45424,7 @@
         <v>2.2930000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>56</v>
       </c>
@@ -45494,7 +45451,7 @@
         <v>2.9060000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>57</v>
       </c>
@@ -45521,7 +45478,7 @@
         <v>0.31569999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>58</v>
       </c>
@@ -45548,7 +45505,7 @@
         <v>2.234</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G64" cm="1">
         <f t="array" ref="G64">SQRT(SUMSQ($F$6:$F$59-G6:G59) / COUNTA($F$6:$F$59))</f>
         <v>4.2405164102884836</v>
@@ -45576,28 +45533,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FA5B89-CF56-43C1-A553-201AC2442419}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="B50" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -45611,22 +45568,22 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -45652,7 +45609,7 @@
         <v>0.92820000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -45678,7 +45635,7 @@
         <v>5.1609999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -45704,7 +45661,7 @@
         <v>3.0790000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -45730,7 +45687,7 @@
         <v>2.359</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -45756,7 +45713,7 @@
         <v>2.4039999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -45782,7 +45739,7 @@
         <v>2.778</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -45808,7 +45765,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -45834,7 +45791,7 @@
         <v>5.8330000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -45860,7 +45817,7 @@
         <v>0.78280000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -45886,7 +45843,7 @@
         <v>5.7469999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -45912,7 +45869,7 @@
         <v>3.5169999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -45938,7 +45895,7 @@
         <v>4.4249999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -45964,7 +45921,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -45990,7 +45947,7 @@
         <v>2.593</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -46016,7 +45973,7 @@
         <v>1.9339999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -46042,7 +45999,7 @@
         <v>2.911</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -46068,7 +46025,7 @@
         <v>2.9790000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -46094,7 +46051,7 @@
         <v>7.4619999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -46120,7 +46077,7 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -46146,7 +46103,7 @@
         <v>10.36</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -46172,7 +46129,7 @@
         <v>5.7350000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -46198,7 +46155,7 @@
         <v>6.3090000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
@@ -46224,7 +46181,7 @@
         <v>1.5980000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
@@ -46250,7 +46207,7 @@
         <v>1.9279999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
@@ -46276,7 +46233,7 @@
         <v>2.7120000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -46302,7 +46259,7 @@
         <v>6.1680000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>27</v>
       </c>
@@ -46328,7 +46285,7 @@
         <v>10.15</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>28</v>
       </c>
@@ -46354,7 +46311,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>29</v>
       </c>
@@ -46380,7 +46337,7 @@
         <v>8.5239999999999991</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>30</v>
       </c>
@@ -46406,7 +46363,7 @@
         <v>4.5369999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>31</v>
       </c>
@@ -46432,7 +46389,7 @@
         <v>1.462</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>32</v>
       </c>
@@ -46458,7 +46415,7 @@
         <v>1.5609999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>33</v>
       </c>
@@ -46484,7 +46441,7 @@
         <v>1.427</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>34</v>
       </c>
@@ -46510,7 +46467,7 @@
         <v>24.28</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>35</v>
       </c>
@@ -46536,7 +46493,7 @@
         <v>1.4039999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>36</v>
       </c>
@@ -46562,7 +46519,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>37</v>
       </c>
@@ -46588,7 +46545,7 @@
         <v>2.956</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>38</v>
       </c>
@@ -46614,7 +46571,7 @@
         <v>18.38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>39</v>
       </c>
@@ -46640,7 +46597,7 @@
         <v>6.0069999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>40</v>
       </c>
@@ -46666,7 +46623,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>41</v>
       </c>
@@ -46692,7 +46649,7 @@
         <v>11.03</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>42</v>
       </c>
@@ -46718,7 +46675,7 @@
         <v>4.1829999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>43</v>
       </c>
@@ -46744,7 +46701,7 @@
         <v>1.8740000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>44</v>
       </c>
@@ -46770,7 +46727,7 @@
         <v>31.35</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>45</v>
       </c>
@@ -46796,7 +46753,7 @@
         <v>3.7069999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>46</v>
       </c>
@@ -46822,7 +46779,7 @@
         <v>1.444</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>47</v>
       </c>
@@ -46848,7 +46805,7 @@
         <v>11.67</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>48</v>
       </c>
@@ -46874,7 +46831,7 @@
         <v>3.2639999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>49</v>
       </c>
@@ -46900,7 +46857,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>50</v>
       </c>
@@ -46926,7 +46883,7 @@
         <v>5.6050000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>51</v>
       </c>
@@ -46952,7 +46909,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>52</v>
       </c>
@@ -46978,7 +46935,7 @@
         <v>4.7060000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>53</v>
       </c>
@@ -47004,7 +46961,7 @@
         <v>2.9220000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>54</v>
       </c>
@@ -47030,7 +46987,7 @@
         <v>6.2889999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>55</v>
       </c>
@@ -47057,7 +47014,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>56</v>
       </c>
@@ -47084,7 +47041,7 @@
         <v>4.9039999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>57</v>
       </c>
@@ -47111,7 +47068,7 @@
         <v>0.25480000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>58</v>
       </c>
@@ -47138,7 +47095,7 @@
         <v>3.3450000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G64" cm="1">
         <f t="array" ref="G64">SQRT(SUMSQ($F$6:$F$59-G6:G59) / COUNTA($F$6:$F$59))</f>
         <v>5.7721300023539044</v>
@@ -47160,5525 +47117,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9432702-74C9-4CE9-943F-44829CD859F0}">
-  <dimension ref="A1:AS65"/>
-  <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>1</v>
-      </c>
-      <c r="X3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>3</v>
-      </c>
-      <c r="R5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T5" t="s">
-        <v>11</v>
-      </c>
-      <c r="U5" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44623.041666666664</v>
-      </c>
-      <c r="D6">
-        <v>2.5</v>
-      </c>
-      <c r="E6">
-        <v>1.341E-2</v>
-      </c>
-      <c r="F6">
-        <v>7.324E-2</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>44623.041666666664</v>
-      </c>
-      <c r="K6">
-        <v>2.5</v>
-      </c>
-      <c r="L6">
-        <v>0.23</v>
-      </c>
-      <c r="M6">
-        <v>0.74390000000000001</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1">
-        <v>44623.041666666664</v>
-      </c>
-      <c r="S6">
-        <v>2.5</v>
-      </c>
-      <c r="T6">
-        <v>0.3826</v>
-      </c>
-      <c r="U6">
-        <v>1.3149999999999999</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>44623.041666666664</v>
-      </c>
-      <c r="AA6">
-        <v>2.5</v>
-      </c>
-      <c r="AB6">
-        <v>1.712</v>
-      </c>
-      <c r="AC6">
-        <v>2.7410000000000001</v>
-      </c>
-      <c r="AF6">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>44623.041666666664</v>
-      </c>
-      <c r="AI6">
-        <v>2.5</v>
-      </c>
-      <c r="AJ6">
-        <v>0.75219999999999998</v>
-      </c>
-      <c r="AK6">
-        <v>1.5680000000000001</v>
-      </c>
-      <c r="AN6">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>44623.041666666664</v>
-      </c>
-      <c r="AQ6">
-        <v>2.5</v>
-      </c>
-      <c r="AR6">
-        <v>0.72589999999999999</v>
-      </c>
-      <c r="AS6">
-        <v>2.137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44627.03125</v>
-      </c>
-      <c r="D7">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3.3520000000000001E-2</v>
-      </c>
-      <c r="F7">
-        <v>0.124</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1">
-        <v>44627.03125</v>
-      </c>
-      <c r="K7">
-        <v>21</v>
-      </c>
-      <c r="L7">
-        <v>0.59319999999999995</v>
-      </c>
-      <c r="M7">
-        <v>1.292</v>
-      </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-      <c r="R7" s="1">
-        <v>44627.03125</v>
-      </c>
-      <c r="S7">
-        <v>21</v>
-      </c>
-      <c r="T7">
-        <v>1.5549999999999999</v>
-      </c>
-      <c r="U7">
-        <v>3.4820000000000002</v>
-      </c>
-      <c r="X7">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>44627.03125</v>
-      </c>
-      <c r="AA7">
-        <v>21</v>
-      </c>
-      <c r="AB7">
-        <v>11.04</v>
-      </c>
-      <c r="AC7">
-        <v>13.01</v>
-      </c>
-      <c r="AF7">
-        <v>2</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>44627.03125</v>
-      </c>
-      <c r="AI7">
-        <v>21</v>
-      </c>
-      <c r="AJ7">
-        <v>2.1739999999999999</v>
-      </c>
-      <c r="AK7">
-        <v>3.1779999999999999</v>
-      </c>
-      <c r="AN7">
-        <v>2</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>44627.03125</v>
-      </c>
-      <c r="AQ7">
-        <v>21</v>
-      </c>
-      <c r="AR7">
-        <v>4.383</v>
-      </c>
-      <c r="AS7">
-        <v>8.5009999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44629.166666666664</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>3.474E-2</v>
-      </c>
-      <c r="F8">
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1">
-        <v>44629.166666666664</v>
-      </c>
-      <c r="K8">
-        <v>15</v>
-      </c>
-      <c r="L8">
-        <v>0.58169999999999999</v>
-      </c>
-      <c r="M8">
-        <v>0.38890000000000002</v>
-      </c>
-      <c r="P8">
-        <v>3</v>
-      </c>
-      <c r="R8" s="1">
-        <v>44629.166666666664</v>
-      </c>
-      <c r="S8">
-        <v>15</v>
-      </c>
-      <c r="T8">
-        <v>1.327</v>
-      </c>
-      <c r="U8">
-        <v>1.052</v>
-      </c>
-      <c r="X8">
-        <v>3</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>44629.166666666664</v>
-      </c>
-      <c r="AA8">
-        <v>15</v>
-      </c>
-      <c r="AB8">
-        <v>8.1359999999999992</v>
-      </c>
-      <c r="AC8">
-        <v>3.1379999999999999</v>
-      </c>
-      <c r="AF8">
-        <v>3</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>44629.166666666664</v>
-      </c>
-      <c r="AI8">
-        <v>15</v>
-      </c>
-      <c r="AJ8">
-        <v>1.9930000000000001</v>
-      </c>
-      <c r="AK8">
-        <v>1.2509999999999999</v>
-      </c>
-      <c r="AN8">
-        <v>3</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>44629.166666666664</v>
-      </c>
-      <c r="AQ8">
-        <v>15</v>
-      </c>
-      <c r="AR8">
-        <v>2.742</v>
-      </c>
-      <c r="AS8">
-        <v>2.1160000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44631.90625</v>
-      </c>
-      <c r="D9">
-        <v>11.75</v>
-      </c>
-      <c r="E9">
-        <v>2.622E-2</v>
-      </c>
-      <c r="F9">
-        <v>7.9760000000000005E-3</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="J9" s="1">
-        <v>44631.90625</v>
-      </c>
-      <c r="K9">
-        <v>11.75</v>
-      </c>
-      <c r="L9">
-        <v>0.4627</v>
-      </c>
-      <c r="M9">
-        <v>0.24809999999999999</v>
-      </c>
-      <c r="P9">
-        <v>4</v>
-      </c>
-      <c r="R9" s="1">
-        <v>44631.90625</v>
-      </c>
-      <c r="S9">
-        <v>11.75</v>
-      </c>
-      <c r="T9">
-        <v>1.008</v>
-      </c>
-      <c r="U9">
-        <v>0.60429999999999995</v>
-      </c>
-      <c r="X9">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>44631.90625</v>
-      </c>
-      <c r="AA9">
-        <v>11.75</v>
-      </c>
-      <c r="AB9">
-        <v>6.9710000000000001</v>
-      </c>
-      <c r="AC9">
-        <v>1.546</v>
-      </c>
-      <c r="AF9">
-        <v>4</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>44631.90625</v>
-      </c>
-      <c r="AI9">
-        <v>11.75</v>
-      </c>
-      <c r="AJ9">
-        <v>1.6890000000000001</v>
-      </c>
-      <c r="AK9">
-        <v>0.65129999999999999</v>
-      </c>
-      <c r="AN9">
-        <v>4</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>44631.90625</v>
-      </c>
-      <c r="AQ9">
-        <v>11.75</v>
-      </c>
-      <c r="AR9">
-        <v>2.0790000000000002</v>
-      </c>
-      <c r="AS9">
-        <v>1.145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44638.84375</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>2.5430000000000001E-2</v>
-      </c>
-      <c r="F10">
-        <v>7.3069999999999996E-2</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="J10" s="1">
-        <v>44638.84375</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="L10">
-        <v>0.36890000000000001</v>
-      </c>
-      <c r="M10">
-        <v>1.484</v>
-      </c>
-      <c r="P10">
-        <v>5</v>
-      </c>
-      <c r="R10" s="1">
-        <v>44638.84375</v>
-      </c>
-      <c r="S10">
-        <v>5</v>
-      </c>
-      <c r="T10">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="U10">
-        <v>2.431</v>
-      </c>
-      <c r="X10">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>44638.84375</v>
-      </c>
-      <c r="AA10">
-        <v>5</v>
-      </c>
-      <c r="AB10">
-        <v>4.7779999999999996</v>
-      </c>
-      <c r="AC10">
-        <v>6.6520000000000001</v>
-      </c>
-      <c r="AF10">
-        <v>5</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>44638.84375</v>
-      </c>
-      <c r="AI10">
-        <v>5</v>
-      </c>
-      <c r="AJ10">
-        <v>1.208</v>
-      </c>
-      <c r="AK10">
-        <v>3.6030000000000002</v>
-      </c>
-      <c r="AN10">
-        <v>5</v>
-      </c>
-      <c r="AP10" s="1">
-        <v>44638.84375</v>
-      </c>
-      <c r="AQ10">
-        <v>5</v>
-      </c>
-      <c r="AR10">
-        <v>1.9590000000000001</v>
-      </c>
-      <c r="AS10">
-        <v>4.5199999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1">
-        <v>44639.354166666664</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>3.1379999999999998E-2</v>
-      </c>
-      <c r="F11">
-        <v>3.7949999999999998E-2</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
-      <c r="J11" s="1">
-        <v>44639.354166666664</v>
-      </c>
-      <c r="K11">
-        <v>9</v>
-      </c>
-      <c r="L11">
-        <v>0.499</v>
-      </c>
-      <c r="M11">
-        <v>0.75880000000000003</v>
-      </c>
-      <c r="P11">
-        <v>6</v>
-      </c>
-      <c r="R11" s="1">
-        <v>44639.354166666664</v>
-      </c>
-      <c r="S11">
-        <v>9</v>
-      </c>
-      <c r="T11">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="U11">
-        <v>1.5029999999999999</v>
-      </c>
-      <c r="X11">
-        <v>6</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>44639.354166666664</v>
-      </c>
-      <c r="AA11">
-        <v>9</v>
-      </c>
-      <c r="AB11">
-        <v>4.7750000000000004</v>
-      </c>
-      <c r="AC11">
-        <v>2.38</v>
-      </c>
-      <c r="AF11">
-        <v>6</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>44639.354166666664</v>
-      </c>
-      <c r="AI11">
-        <v>9</v>
-      </c>
-      <c r="AJ11">
-        <v>1.4630000000000001</v>
-      </c>
-      <c r="AK11">
-        <v>1.41</v>
-      </c>
-      <c r="AN11">
-        <v>6</v>
-      </c>
-      <c r="AP11" s="1">
-        <v>44639.354166666664</v>
-      </c>
-      <c r="AQ11">
-        <v>9</v>
-      </c>
-      <c r="AR11">
-        <v>2.2549999999999999</v>
-      </c>
-      <c r="AS11">
-        <v>2.0270000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1">
-        <v>44643.25</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>1.6639999999999999E-2</v>
-      </c>
-      <c r="F12">
-        <v>5.067E-2</v>
-      </c>
-      <c r="H12">
-        <v>7</v>
-      </c>
-      <c r="J12" s="1">
-        <v>44643.25</v>
-      </c>
-      <c r="K12">
-        <v>6</v>
-      </c>
-      <c r="L12">
-        <v>0.28920000000000001</v>
-      </c>
-      <c r="M12">
-        <v>0.56059999999999999</v>
-      </c>
-      <c r="P12">
-        <v>7</v>
-      </c>
-      <c r="R12" s="1">
-        <v>44643.25</v>
-      </c>
-      <c r="S12">
-        <v>6</v>
-      </c>
-      <c r="T12">
-        <v>0.68179999999999996</v>
-      </c>
-      <c r="U12">
-        <v>1.8140000000000001</v>
-      </c>
-      <c r="X12">
-        <v>7</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>44643.25</v>
-      </c>
-      <c r="AA12">
-        <v>6</v>
-      </c>
-      <c r="AB12">
-        <v>3.52</v>
-      </c>
-      <c r="AC12">
-        <v>2.9729999999999999</v>
-      </c>
-      <c r="AF12">
-        <v>7</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>44643.25</v>
-      </c>
-      <c r="AI12">
-        <v>6</v>
-      </c>
-      <c r="AJ12">
-        <v>0.96530000000000005</v>
-      </c>
-      <c r="AK12">
-        <v>1.498</v>
-      </c>
-      <c r="AN12">
-        <v>7</v>
-      </c>
-      <c r="AP12" s="1">
-        <v>44643.25</v>
-      </c>
-      <c r="AQ12">
-        <v>6</v>
-      </c>
-      <c r="AR12">
-        <v>1.4</v>
-      </c>
-      <c r="AS12">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1">
-        <v>44643.802083333336</v>
-      </c>
-      <c r="D13">
-        <v>8.5</v>
-      </c>
-      <c r="E13">
-        <v>4.4339999999999997E-2</v>
-      </c>
-      <c r="F13">
-        <v>0.14149999999999999</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="J13" s="1">
-        <v>44643.802083333336</v>
-      </c>
-      <c r="K13">
-        <v>8.5</v>
-      </c>
-      <c r="L13">
-        <v>0.77010000000000001</v>
-      </c>
-      <c r="M13">
-        <v>1.8580000000000001</v>
-      </c>
-      <c r="P13">
-        <v>8</v>
-      </c>
-      <c r="R13" s="1">
-        <v>44643.802083333336</v>
-      </c>
-      <c r="S13">
-        <v>8.5</v>
-      </c>
-      <c r="T13">
-        <v>1.972</v>
-      </c>
-      <c r="U13">
-        <v>5.8470000000000004</v>
-      </c>
-      <c r="X13">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>44643.802083333336</v>
-      </c>
-      <c r="AA13">
-        <v>8.5</v>
-      </c>
-      <c r="AB13">
-        <v>11.98</v>
-      </c>
-      <c r="AC13">
-        <v>10.93</v>
-      </c>
-      <c r="AF13">
-        <v>8</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>44643.802083333336</v>
-      </c>
-      <c r="AI13">
-        <v>8.5</v>
-      </c>
-      <c r="AJ13">
-        <v>2.7040000000000002</v>
-      </c>
-      <c r="AK13">
-        <v>8.6280000000000001</v>
-      </c>
-      <c r="AN13">
-        <v>8</v>
-      </c>
-      <c r="AP13" s="1">
-        <v>44643.802083333336</v>
-      </c>
-      <c r="AQ13">
-        <v>8.5</v>
-      </c>
-      <c r="AR13">
-        <v>5.0469999999999997</v>
-      </c>
-      <c r="AS13">
-        <v>8.6940000000000008</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>44646.010416666664</v>
-      </c>
-      <c r="D14">
-        <v>24</v>
-      </c>
-      <c r="E14">
-        <v>1.2E-2</v>
-      </c>
-      <c r="F14">
-        <v>3.1789999999999999E-2</v>
-      </c>
-      <c r="H14">
-        <v>9</v>
-      </c>
-      <c r="J14" s="1">
-        <v>44646.010416666664</v>
-      </c>
-      <c r="K14">
-        <v>24</v>
-      </c>
-      <c r="L14">
-        <v>0.1719</v>
-      </c>
-      <c r="M14">
-        <v>0.26069999999999999</v>
-      </c>
-      <c r="P14">
-        <v>9</v>
-      </c>
-      <c r="R14" s="1">
-        <v>44646.010416666664</v>
-      </c>
-      <c r="S14">
-        <v>24</v>
-      </c>
-      <c r="T14">
-        <v>0.36959999999999998</v>
-      </c>
-      <c r="U14">
-        <v>0.90349999999999997</v>
-      </c>
-      <c r="X14">
-        <v>9</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>44646.010416666664</v>
-      </c>
-      <c r="AA14">
-        <v>24</v>
-      </c>
-      <c r="AB14">
-        <v>1.6539999999999999</v>
-      </c>
-      <c r="AC14">
-        <v>1.883</v>
-      </c>
-      <c r="AF14">
-        <v>9</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>44646.010416666664</v>
-      </c>
-      <c r="AI14">
-        <v>24</v>
-      </c>
-      <c r="AJ14">
-        <v>0.60419999999999996</v>
-      </c>
-      <c r="AK14">
-        <v>0.54549999999999998</v>
-      </c>
-      <c r="AN14">
-        <v>9</v>
-      </c>
-      <c r="AP14" s="1">
-        <v>44646.010416666664</v>
-      </c>
-      <c r="AQ14">
-        <v>24</v>
-      </c>
-      <c r="AR14">
-        <v>0.5363</v>
-      </c>
-      <c r="AS14">
-        <v>1.671</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1">
-        <v>44651.302083333336</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>3.2829999999999998E-2</v>
-      </c>
-      <c r="F15">
-        <v>9.8460000000000006E-2</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1">
-        <v>44651.302083333336</v>
-      </c>
-      <c r="K15">
-        <v>6</v>
-      </c>
-      <c r="L15">
-        <v>0.56010000000000004</v>
-      </c>
-      <c r="M15">
-        <v>2.4740000000000002</v>
-      </c>
-      <c r="P15">
-        <v>10</v>
-      </c>
-      <c r="R15" s="1">
-        <v>44651.302083333336</v>
-      </c>
-      <c r="S15">
-        <v>6</v>
-      </c>
-      <c r="T15">
-        <v>1.66</v>
-      </c>
-      <c r="U15">
-        <v>7.5519999999999996</v>
-      </c>
-      <c r="X15">
-        <v>10</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>44651.302083333336</v>
-      </c>
-      <c r="AA15">
-        <v>6</v>
-      </c>
-      <c r="AB15">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="AC15">
-        <v>13.89</v>
-      </c>
-      <c r="AF15">
-        <v>10</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>44651.302083333336</v>
-      </c>
-      <c r="AI15">
-        <v>6</v>
-      </c>
-      <c r="AJ15">
-        <v>2.0350000000000001</v>
-      </c>
-      <c r="AK15">
-        <v>6.1879999999999997</v>
-      </c>
-      <c r="AN15">
-        <v>10</v>
-      </c>
-      <c r="AP15" s="1">
-        <v>44651.302083333336</v>
-      </c>
-      <c r="AQ15">
-        <v>6</v>
-      </c>
-      <c r="AR15">
-        <v>4.9370000000000003</v>
-      </c>
-      <c r="AS15">
-        <v>9.3279999999999994</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1">
-        <v>44656.729166666664</v>
-      </c>
-      <c r="D16">
-        <v>18</v>
-      </c>
-      <c r="E16">
-        <v>4.002E-2</v>
-      </c>
-      <c r="F16">
-        <v>4.929E-2</v>
-      </c>
-      <c r="H16">
-        <v>11</v>
-      </c>
-      <c r="J16" s="1">
-        <v>44656.729166666664</v>
-      </c>
-      <c r="K16">
-        <v>18</v>
-      </c>
-      <c r="L16">
-        <v>0.62519999999999998</v>
-      </c>
-      <c r="M16">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="P16">
-        <v>11</v>
-      </c>
-      <c r="R16" s="1">
-        <v>44656.729166666664</v>
-      </c>
-      <c r="S16">
-        <v>18</v>
-      </c>
-      <c r="T16">
-        <v>1.472</v>
-      </c>
-      <c r="U16">
-        <v>2.4660000000000002</v>
-      </c>
-      <c r="X16">
-        <v>11</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>44656.729166666664</v>
-      </c>
-      <c r="AA16">
-        <v>18</v>
-      </c>
-      <c r="AB16">
-        <v>8.6660000000000004</v>
-      </c>
-      <c r="AC16">
-        <v>9.2629999999999999</v>
-      </c>
-      <c r="AF16">
-        <v>11</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>44656.729166666664</v>
-      </c>
-      <c r="AI16">
-        <v>18</v>
-      </c>
-      <c r="AJ16">
-        <v>2.2189999999999999</v>
-      </c>
-      <c r="AK16">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="AN16">
-        <v>11</v>
-      </c>
-      <c r="AP16" s="1">
-        <v>44656.729166666664</v>
-      </c>
-      <c r="AQ16">
-        <v>18</v>
-      </c>
-      <c r="AR16">
-        <v>3.1589999999999998</v>
-      </c>
-      <c r="AS16">
-        <v>4.9119999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1">
-        <v>44657.8125</v>
-      </c>
-      <c r="D17">
-        <v>26.25</v>
-      </c>
-      <c r="E17">
-        <v>4.1279999999999997E-2</v>
-      </c>
-      <c r="F17">
-        <v>7.9189999999999997E-2</v>
-      </c>
-      <c r="H17">
-        <v>12</v>
-      </c>
-      <c r="J17" s="1">
-        <v>44657.8125</v>
-      </c>
-      <c r="K17">
-        <v>26.25</v>
-      </c>
-      <c r="L17">
-        <v>0.75690000000000002</v>
-      </c>
-      <c r="M17">
-        <v>1.2609999999999999</v>
-      </c>
-      <c r="P17">
-        <v>12</v>
-      </c>
-      <c r="R17" s="1">
-        <v>44657.8125</v>
-      </c>
-      <c r="S17">
-        <v>26.25</v>
-      </c>
-      <c r="T17">
-        <v>1.8069999999999999</v>
-      </c>
-      <c r="U17">
-        <v>4.0460000000000003</v>
-      </c>
-      <c r="X17">
-        <v>12</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>44657.8125</v>
-      </c>
-      <c r="AA17">
-        <v>26.25</v>
-      </c>
-      <c r="AB17">
-        <v>10.31</v>
-      </c>
-      <c r="AC17">
-        <v>12.91</v>
-      </c>
-      <c r="AF17">
-        <v>12</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>44657.8125</v>
-      </c>
-      <c r="AI17">
-        <v>26.25</v>
-      </c>
-      <c r="AJ17">
-        <v>2.7050000000000001</v>
-      </c>
-      <c r="AK17">
-        <v>3.6259999999999999</v>
-      </c>
-      <c r="AN17">
-        <v>12</v>
-      </c>
-      <c r="AP17" s="1">
-        <v>44657.8125</v>
-      </c>
-      <c r="AQ17">
-        <v>26.25</v>
-      </c>
-      <c r="AR17">
-        <v>4.0069999999999997</v>
-      </c>
-      <c r="AS17">
-        <v>8.1430000000000007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1">
-        <v>44660.239583333336</v>
-      </c>
-      <c r="D18">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1.1560000000000001E-2</v>
-      </c>
-      <c r="F18">
-        <v>2.8969999999999999E-2</v>
-      </c>
-      <c r="H18">
-        <v>13</v>
-      </c>
-      <c r="J18" s="1">
-        <v>44660.239583333336</v>
-      </c>
-      <c r="K18">
-        <v>21</v>
-      </c>
-      <c r="L18">
-        <v>0.25319999999999998</v>
-      </c>
-      <c r="M18">
-        <v>0.41920000000000002</v>
-      </c>
-      <c r="P18">
-        <v>13</v>
-      </c>
-      <c r="R18" s="1">
-        <v>44660.239583333336</v>
-      </c>
-      <c r="S18">
-        <v>21</v>
-      </c>
-      <c r="T18">
-        <v>0.46379999999999999</v>
-      </c>
-      <c r="U18">
-        <v>1.4470000000000001</v>
-      </c>
-      <c r="X18">
-        <v>13</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>44660.239583333336</v>
-      </c>
-      <c r="AA18">
-        <v>21</v>
-      </c>
-      <c r="AB18">
-        <v>2.99</v>
-      </c>
-      <c r="AC18">
-        <v>3.7949999999999999</v>
-      </c>
-      <c r="AF18">
-        <v>13</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>44660.239583333336</v>
-      </c>
-      <c r="AI18">
-        <v>21</v>
-      </c>
-      <c r="AJ18">
-        <v>0.85219999999999996</v>
-      </c>
-      <c r="AK18">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="AN18">
-        <v>13</v>
-      </c>
-      <c r="AP18" s="1">
-        <v>44660.239583333336</v>
-      </c>
-      <c r="AQ18">
-        <v>21</v>
-      </c>
-      <c r="AR18">
-        <v>1.0089999999999999</v>
-      </c>
-      <c r="AS18">
-        <v>2.1139999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1">
-        <v>44662.59375</v>
-      </c>
-      <c r="D19">
-        <v>17</v>
-      </c>
-      <c r="E19">
-        <v>2.733E-2</v>
-      </c>
-      <c r="F19">
-        <v>4.7419999999999997E-2</v>
-      </c>
-      <c r="H19">
-        <v>14</v>
-      </c>
-      <c r="J19" s="1">
-        <v>44662.59375</v>
-      </c>
-      <c r="K19">
-        <v>17</v>
-      </c>
-      <c r="L19">
-        <v>0.44019999999999998</v>
-      </c>
-      <c r="M19">
-        <v>0.60609999999999997</v>
-      </c>
-      <c r="P19">
-        <v>14</v>
-      </c>
-      <c r="R19" s="1">
-        <v>44662.59375</v>
-      </c>
-      <c r="S19">
-        <v>17</v>
-      </c>
-      <c r="T19">
-        <v>0.93830000000000002</v>
-      </c>
-      <c r="U19">
-        <v>1.996</v>
-      </c>
-      <c r="X19">
-        <v>14</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>44662.59375</v>
-      </c>
-      <c r="AA19">
-        <v>17</v>
-      </c>
-      <c r="AB19">
-        <v>6.5529999999999999</v>
-      </c>
-      <c r="AC19">
-        <v>6.8769999999999998</v>
-      </c>
-      <c r="AF19">
-        <v>14</v>
-      </c>
-      <c r="AH19" s="1">
-        <v>44662.59375</v>
-      </c>
-      <c r="AI19">
-        <v>17</v>
-      </c>
-      <c r="AJ19">
-        <v>1.53</v>
-      </c>
-      <c r="AK19">
-        <v>2.1469999999999998</v>
-      </c>
-      <c r="AN19">
-        <v>14</v>
-      </c>
-      <c r="AP19" s="1">
-        <v>44662.59375</v>
-      </c>
-      <c r="AQ19">
-        <v>17</v>
-      </c>
-      <c r="AR19">
-        <v>2.137</v>
-      </c>
-      <c r="AS19">
-        <v>3.9969999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1">
-        <v>44667.145833333336</v>
-      </c>
-      <c r="D20">
-        <v>11.75</v>
-      </c>
-      <c r="E20">
-        <v>2.043E-2</v>
-      </c>
-      <c r="F20">
-        <v>5.2089999999999997E-2</v>
-      </c>
-      <c r="H20">
-        <v>15</v>
-      </c>
-      <c r="J20" s="1">
-        <v>44667.145833333336</v>
-      </c>
-      <c r="K20">
-        <v>11.75</v>
-      </c>
-      <c r="L20">
-        <v>0.31459999999999999</v>
-      </c>
-      <c r="M20">
-        <v>0.439</v>
-      </c>
-      <c r="P20">
-        <v>15</v>
-      </c>
-      <c r="R20" s="1">
-        <v>44667.145833333336</v>
-      </c>
-      <c r="S20">
-        <v>11.75</v>
-      </c>
-      <c r="T20">
-        <v>0.69889999999999997</v>
-      </c>
-      <c r="U20">
-        <v>1.1859999999999999</v>
-      </c>
-      <c r="X20">
-        <v>15</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>44667.145833333336</v>
-      </c>
-      <c r="AA20">
-        <v>11.75</v>
-      </c>
-      <c r="AB20">
-        <v>4.0540000000000003</v>
-      </c>
-      <c r="AC20">
-        <v>3.9830000000000001</v>
-      </c>
-      <c r="AF20">
-        <v>15</v>
-      </c>
-      <c r="AH20" s="1">
-        <v>44667.145833333336</v>
-      </c>
-      <c r="AI20">
-        <v>11.75</v>
-      </c>
-      <c r="AJ20">
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="AK20">
-        <v>1.38</v>
-      </c>
-      <c r="AN20">
-        <v>15</v>
-      </c>
-      <c r="AP20" s="1">
-        <v>44667.145833333336</v>
-      </c>
-      <c r="AQ20">
-        <v>11.75</v>
-      </c>
-      <c r="AR20">
-        <v>1.7050000000000001</v>
-      </c>
-      <c r="AS20">
-        <v>2.339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>16</v>
-      </c>
-      <c r="C21" s="1">
-        <v>44669.395833333336</v>
-      </c>
-      <c r="D21">
-        <v>35</v>
-      </c>
-      <c r="E21">
-        <v>2.93E-2</v>
-      </c>
-      <c r="F21">
-        <v>5.1499999999999997E-2</v>
-      </c>
-      <c r="H21">
-        <v>16</v>
-      </c>
-      <c r="J21" s="1">
-        <v>44669.395833333336</v>
-      </c>
-      <c r="K21">
-        <v>35</v>
-      </c>
-      <c r="L21">
-        <v>0.53410000000000002</v>
-      </c>
-      <c r="M21">
-        <v>0.71740000000000004</v>
-      </c>
-      <c r="P21">
-        <v>16</v>
-      </c>
-      <c r="R21" s="1">
-        <v>44669.395833333336</v>
-      </c>
-      <c r="S21">
-        <v>35</v>
-      </c>
-      <c r="T21">
-        <v>1.29</v>
-      </c>
-      <c r="U21">
-        <v>1.948</v>
-      </c>
-      <c r="X21">
-        <v>16</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>44669.395833333336</v>
-      </c>
-      <c r="AA21">
-        <v>35</v>
-      </c>
-      <c r="AB21">
-        <v>7.7149999999999999</v>
-      </c>
-      <c r="AC21">
-        <v>7.5839999999999996</v>
-      </c>
-      <c r="AF21">
-        <v>16</v>
-      </c>
-      <c r="AH21" s="1">
-        <v>44669.395833333336</v>
-      </c>
-      <c r="AI21">
-        <v>35</v>
-      </c>
-      <c r="AJ21">
-        <v>1.9630000000000001</v>
-      </c>
-      <c r="AK21">
-        <v>2.0489999999999999</v>
-      </c>
-      <c r="AN21">
-        <v>16</v>
-      </c>
-      <c r="AP21" s="1">
-        <v>44669.395833333336</v>
-      </c>
-      <c r="AQ21">
-        <v>35</v>
-      </c>
-      <c r="AR21">
-        <v>2.6</v>
-      </c>
-      <c r="AS21">
-        <v>3.5979999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>17</v>
-      </c>
-      <c r="C22" s="1">
-        <v>44672.28125</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>3.4419999999999999E-2</v>
-      </c>
-      <c r="F22">
-        <v>5.4010000000000002E-2</v>
-      </c>
-      <c r="H22">
-        <v>17</v>
-      </c>
-      <c r="J22" s="1">
-        <v>44672.28125</v>
-      </c>
-      <c r="K22">
-        <v>5</v>
-      </c>
-      <c r="L22">
-        <v>0.53310000000000002</v>
-      </c>
-      <c r="M22">
-        <v>0.92269999999999996</v>
-      </c>
-      <c r="P22">
-        <v>17</v>
-      </c>
-      <c r="R22" s="1">
-        <v>44672.28125</v>
-      </c>
-      <c r="S22">
-        <v>5</v>
-      </c>
-      <c r="T22">
-        <v>1.2110000000000001</v>
-      </c>
-      <c r="U22">
-        <v>2.323</v>
-      </c>
-      <c r="X22">
-        <v>17</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>44672.28125</v>
-      </c>
-      <c r="AA22">
-        <v>5</v>
-      </c>
-      <c r="AB22">
-        <v>7.3140000000000001</v>
-      </c>
-      <c r="AC22">
-        <v>8.4909999999999997</v>
-      </c>
-      <c r="AF22">
-        <v>17</v>
-      </c>
-      <c r="AH22" s="1">
-        <v>44672.28125</v>
-      </c>
-      <c r="AI22">
-        <v>5</v>
-      </c>
-      <c r="AJ22">
-        <v>1.7430000000000001</v>
-      </c>
-      <c r="AK22">
-        <v>2.198</v>
-      </c>
-      <c r="AN22">
-        <v>17</v>
-      </c>
-      <c r="AP22" s="1">
-        <v>44672.28125</v>
-      </c>
-      <c r="AQ22">
-        <v>5</v>
-      </c>
-      <c r="AR22">
-        <v>2.6779999999999999</v>
-      </c>
-      <c r="AS22">
-        <v>4.2670000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>18</v>
-      </c>
-      <c r="C23" s="1">
-        <v>44682.291666666664</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>0.1226</v>
-      </c>
-      <c r="F23">
-        <v>0.31879999999999997</v>
-      </c>
-      <c r="H23">
-        <v>18</v>
-      </c>
-      <c r="J23" s="1">
-        <v>44682.291666666664</v>
-      </c>
-      <c r="K23">
-        <v>10</v>
-      </c>
-      <c r="L23">
-        <v>1.869</v>
-      </c>
-      <c r="M23">
-        <v>6.5579999999999998</v>
-      </c>
-      <c r="P23">
-        <v>18</v>
-      </c>
-      <c r="R23" s="1">
-        <v>44682.291666666664</v>
-      </c>
-      <c r="S23">
-        <v>10</v>
-      </c>
-      <c r="T23">
-        <v>3.4540000000000002</v>
-      </c>
-      <c r="U23">
-        <v>8.7739999999999991</v>
-      </c>
-      <c r="X23">
-        <v>18</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>44682.291666666664</v>
-      </c>
-      <c r="AA23">
-        <v>10</v>
-      </c>
-      <c r="AB23">
-        <v>15.97</v>
-      </c>
-      <c r="AC23">
-        <v>23.05</v>
-      </c>
-      <c r="AF23">
-        <v>18</v>
-      </c>
-      <c r="AH23" s="1">
-        <v>44682.291666666664</v>
-      </c>
-      <c r="AI23">
-        <v>10</v>
-      </c>
-      <c r="AJ23">
-        <v>5.673</v>
-      </c>
-      <c r="AK23">
-        <v>8.8729999999999993</v>
-      </c>
-      <c r="AN23">
-        <v>18</v>
-      </c>
-      <c r="AP23" s="1">
-        <v>44682.291666666664</v>
-      </c>
-      <c r="AQ23">
-        <v>10</v>
-      </c>
-      <c r="AR23">
-        <v>6.8689999999999998</v>
-      </c>
-      <c r="AS23">
-        <v>17.97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>19</v>
-      </c>
-      <c r="C24" s="1">
-        <v>44684.625</v>
-      </c>
-      <c r="D24">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>0.15909999999999999</v>
-      </c>
-      <c r="F24">
-        <v>0.32669999999999999</v>
-      </c>
-      <c r="H24">
-        <v>19</v>
-      </c>
-      <c r="J24" s="1">
-        <v>44684.625</v>
-      </c>
-      <c r="K24">
-        <v>24</v>
-      </c>
-      <c r="L24">
-        <v>2.6160000000000001</v>
-      </c>
-      <c r="M24">
-        <v>10.67</v>
-      </c>
-      <c r="P24">
-        <v>19</v>
-      </c>
-      <c r="R24" s="1">
-        <v>44684.625</v>
-      </c>
-      <c r="S24">
-        <v>24</v>
-      </c>
-      <c r="T24">
-        <v>6.2759999999999998</v>
-      </c>
-      <c r="U24">
-        <v>17.13</v>
-      </c>
-      <c r="X24">
-        <v>19</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>44684.625</v>
-      </c>
-      <c r="AA24">
-        <v>24</v>
-      </c>
-      <c r="AB24">
-        <v>24.69</v>
-      </c>
-      <c r="AC24">
-        <v>32.26</v>
-      </c>
-      <c r="AF24">
-        <v>19</v>
-      </c>
-      <c r="AH24" s="1">
-        <v>44684.625</v>
-      </c>
-      <c r="AI24">
-        <v>24</v>
-      </c>
-      <c r="AJ24">
-        <v>8.8859999999999992</v>
-      </c>
-      <c r="AK24">
-        <v>14.3</v>
-      </c>
-      <c r="AN24">
-        <v>19</v>
-      </c>
-      <c r="AP24" s="1">
-        <v>44684.625</v>
-      </c>
-      <c r="AQ24">
-        <v>24</v>
-      </c>
-      <c r="AR24">
-        <v>11.07</v>
-      </c>
-      <c r="AS24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>20</v>
-      </c>
-      <c r="C25" s="1">
-        <v>44686.979166666664</v>
-      </c>
-      <c r="D25">
-        <v>45</v>
-      </c>
-      <c r="E25">
-        <v>0.1489</v>
-      </c>
-      <c r="F25">
-        <v>0.30030000000000001</v>
-      </c>
-      <c r="H25">
-        <v>20</v>
-      </c>
-      <c r="J25" s="1">
-        <v>44686.979166666664</v>
-      </c>
-      <c r="K25">
-        <v>45</v>
-      </c>
-      <c r="L25">
-        <v>2.52</v>
-      </c>
-      <c r="M25">
-        <v>5.82</v>
-      </c>
-      <c r="P25">
-        <v>20</v>
-      </c>
-      <c r="R25" s="1">
-        <v>44686.979166666664</v>
-      </c>
-      <c r="S25">
-        <v>45</v>
-      </c>
-      <c r="T25">
-        <v>5.0030000000000001</v>
-      </c>
-      <c r="U25">
-        <v>15.91</v>
-      </c>
-      <c r="X25">
-        <v>20</v>
-      </c>
-      <c r="Z25" s="1">
-        <v>44686.979166666664</v>
-      </c>
-      <c r="AA25">
-        <v>45</v>
-      </c>
-      <c r="AB25">
-        <v>20.64</v>
-      </c>
-      <c r="AC25">
-        <v>31.25</v>
-      </c>
-      <c r="AF25">
-        <v>20</v>
-      </c>
-      <c r="AH25" s="1">
-        <v>44686.979166666664</v>
-      </c>
-      <c r="AI25">
-        <v>45</v>
-      </c>
-      <c r="AJ25">
-        <v>8.2490000000000006</v>
-      </c>
-      <c r="AK25">
-        <v>17.03</v>
-      </c>
-      <c r="AN25">
-        <v>20</v>
-      </c>
-      <c r="AP25" s="1">
-        <v>44686.979166666664</v>
-      </c>
-      <c r="AQ25">
-        <v>45</v>
-      </c>
-      <c r="AR25">
-        <v>8.4459999999999997</v>
-      </c>
-      <c r="AS25">
-        <v>17.28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>21</v>
-      </c>
-      <c r="C26" s="1">
-        <v>44695.770833333336</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>8.6239999999999997E-2</v>
-      </c>
-      <c r="F26">
-        <v>0.1197</v>
-      </c>
-      <c r="H26">
-        <v>21</v>
-      </c>
-      <c r="J26" s="1">
-        <v>44695.770833333336</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1.3939999999999999</v>
-      </c>
-      <c r="M26">
-        <v>2.2879999999999998</v>
-      </c>
-      <c r="P26">
-        <v>21</v>
-      </c>
-      <c r="R26" s="1">
-        <v>44695.770833333336</v>
-      </c>
-      <c r="S26">
-        <v>3</v>
-      </c>
-      <c r="T26">
-        <v>1.954</v>
-      </c>
-      <c r="U26">
-        <v>4.9889999999999999</v>
-      </c>
-      <c r="X26">
-        <v>21</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>44695.770833333336</v>
-      </c>
-      <c r="AA26">
-        <v>3</v>
-      </c>
-      <c r="AB26">
-        <v>9.7460000000000004</v>
-      </c>
-      <c r="AC26">
-        <v>22.25</v>
-      </c>
-      <c r="AF26">
-        <v>21</v>
-      </c>
-      <c r="AH26" s="1">
-        <v>44695.770833333336</v>
-      </c>
-      <c r="AI26">
-        <v>3</v>
-      </c>
-      <c r="AJ26">
-        <v>3.5030000000000001</v>
-      </c>
-      <c r="AK26">
-        <v>5.1790000000000003</v>
-      </c>
-      <c r="AN26">
-        <v>21</v>
-      </c>
-      <c r="AP26" s="1">
-        <v>44695.770833333336</v>
-      </c>
-      <c r="AQ26">
-        <v>3</v>
-      </c>
-      <c r="AR26">
-        <v>5.141</v>
-      </c>
-      <c r="AS26">
-        <v>15.24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>22</v>
-      </c>
-      <c r="C27" s="1">
-        <v>44697.291666666664</v>
-      </c>
-      <c r="D27">
-        <v>12.75</v>
-      </c>
-      <c r="E27">
-        <v>7.3219999999999993E-2</v>
-      </c>
-      <c r="F27">
-        <v>0.1045</v>
-      </c>
-      <c r="H27">
-        <v>22</v>
-      </c>
-      <c r="J27" s="1">
-        <v>44697.291666666664</v>
-      </c>
-      <c r="K27">
-        <v>12.75</v>
-      </c>
-      <c r="L27">
-        <v>1.181</v>
-      </c>
-      <c r="M27">
-        <v>2.4590000000000001</v>
-      </c>
-      <c r="P27">
-        <v>22</v>
-      </c>
-      <c r="R27" s="1">
-        <v>44697.291666666664</v>
-      </c>
-      <c r="S27">
-        <v>12.75</v>
-      </c>
-      <c r="T27">
-        <v>2.5680000000000001</v>
-      </c>
-      <c r="U27">
-        <v>4.415</v>
-      </c>
-      <c r="X27">
-        <v>22</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>44697.291666666664</v>
-      </c>
-      <c r="AA27">
-        <v>12.75</v>
-      </c>
-      <c r="AB27">
-        <v>13.32</v>
-      </c>
-      <c r="AC27">
-        <v>16.32</v>
-      </c>
-      <c r="AF27">
-        <v>22</v>
-      </c>
-      <c r="AH27" s="1">
-        <v>44697.291666666664</v>
-      </c>
-      <c r="AI27">
-        <v>12.75</v>
-      </c>
-      <c r="AJ27">
-        <v>3.7450000000000001</v>
-      </c>
-      <c r="AK27">
-        <v>4.532</v>
-      </c>
-      <c r="AN27">
-        <v>22</v>
-      </c>
-      <c r="AP27" s="1">
-        <v>44697.291666666664</v>
-      </c>
-      <c r="AQ27">
-        <v>12.75</v>
-      </c>
-      <c r="AR27">
-        <v>5.8129999999999997</v>
-      </c>
-      <c r="AS27">
-        <v>8.5250000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>23</v>
-      </c>
-      <c r="C28" s="1">
-        <v>44699.541666666664</v>
-      </c>
-      <c r="D28">
-        <v>13</v>
-      </c>
-      <c r="E28">
-        <v>1.789E-2</v>
-      </c>
-      <c r="F28">
-        <v>4.7329999999999997E-2</v>
-      </c>
-      <c r="H28">
-        <v>23</v>
-      </c>
-      <c r="J28" s="1">
-        <v>44699.541666666664</v>
-      </c>
-      <c r="K28">
-        <v>13</v>
-      </c>
-      <c r="L28">
-        <v>0.32869999999999999</v>
-      </c>
-      <c r="M28">
-        <v>0.55149999999999999</v>
-      </c>
-      <c r="P28">
-        <v>23</v>
-      </c>
-      <c r="R28" s="1">
-        <v>44699.541666666664</v>
-      </c>
-      <c r="S28">
-        <v>13</v>
-      </c>
-      <c r="T28">
-        <v>0.68330000000000002</v>
-      </c>
-      <c r="U28">
-        <v>1.246</v>
-      </c>
-      <c r="X28">
-        <v>23</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>44699.541666666664</v>
-      </c>
-      <c r="AA28">
-        <v>13</v>
-      </c>
-      <c r="AB28">
-        <v>4.7329999999999997</v>
-      </c>
-      <c r="AC28">
-        <v>5.0810000000000004</v>
-      </c>
-      <c r="AF28">
-        <v>23</v>
-      </c>
-      <c r="AH28" s="1">
-        <v>44699.541666666664</v>
-      </c>
-      <c r="AI28">
-        <v>13</v>
-      </c>
-      <c r="AJ28">
-        <v>1.1579999999999999</v>
-      </c>
-      <c r="AK28">
-        <v>1.089</v>
-      </c>
-      <c r="AN28">
-        <v>23</v>
-      </c>
-      <c r="AP28" s="1">
-        <v>44699.541666666664</v>
-      </c>
-      <c r="AQ28">
-        <v>13</v>
-      </c>
-      <c r="AR28">
-        <v>1.4219999999999999</v>
-      </c>
-      <c r="AS28">
-        <v>3.383</v>
-      </c>
-    </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>24</v>
-      </c>
-      <c r="C29" s="1">
-        <v>44703.552083333336</v>
-      </c>
-      <c r="D29">
-        <v>7</v>
-      </c>
-      <c r="E29">
-        <v>2.206E-2</v>
-      </c>
-      <c r="F29">
-        <v>4.3130000000000002E-2</v>
-      </c>
-      <c r="H29">
-        <v>24</v>
-      </c>
-      <c r="J29" s="1">
-        <v>44703.552083333336</v>
-      </c>
-      <c r="K29">
-        <v>7</v>
-      </c>
-      <c r="L29">
-        <v>0.33110000000000001</v>
-      </c>
-      <c r="M29">
-        <v>0.64380000000000004</v>
-      </c>
-      <c r="P29">
-        <v>24</v>
-      </c>
-      <c r="R29" s="1">
-        <v>44703.552083333336</v>
-      </c>
-      <c r="S29">
-        <v>7</v>
-      </c>
-      <c r="T29">
-        <v>0.64229999999999998</v>
-      </c>
-      <c r="U29">
-        <v>1.46</v>
-      </c>
-      <c r="X29">
-        <v>24</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>44703.552083333336</v>
-      </c>
-      <c r="AA29">
-        <v>7</v>
-      </c>
-      <c r="AB29">
-        <v>3.61</v>
-      </c>
-      <c r="AC29">
-        <v>3.4740000000000002</v>
-      </c>
-      <c r="AF29">
-        <v>24</v>
-      </c>
-      <c r="AH29" s="1">
-        <v>44703.552083333336</v>
-      </c>
-      <c r="AI29">
-        <v>7</v>
-      </c>
-      <c r="AJ29">
-        <v>0.97419999999999995</v>
-      </c>
-      <c r="AK29">
-        <v>1.859</v>
-      </c>
-      <c r="AN29">
-        <v>24</v>
-      </c>
-      <c r="AP29" s="1">
-        <v>44703.552083333336</v>
-      </c>
-      <c r="AQ29">
-        <v>7</v>
-      </c>
-      <c r="AR29">
-        <v>1.4419999999999999</v>
-      </c>
-      <c r="AS29">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>25</v>
-      </c>
-      <c r="C30" s="1">
-        <v>44707.833333333336</v>
-      </c>
-      <c r="D30">
-        <v>15</v>
-      </c>
-      <c r="E30">
-        <v>3.1809999999999998E-2</v>
-      </c>
-      <c r="F30">
-        <v>6.9029999999999994E-2</v>
-      </c>
-      <c r="H30">
-        <v>25</v>
-      </c>
-      <c r="J30" s="1">
-        <v>44707.833333333336</v>
-      </c>
-      <c r="K30">
-        <v>15</v>
-      </c>
-      <c r="L30">
-        <v>0.48809999999999998</v>
-      </c>
-      <c r="M30">
-        <v>1.1990000000000001</v>
-      </c>
-      <c r="P30">
-        <v>25</v>
-      </c>
-      <c r="R30" s="1">
-        <v>44707.833333333336</v>
-      </c>
-      <c r="S30">
-        <v>15</v>
-      </c>
-      <c r="T30">
-        <v>1.135</v>
-      </c>
-      <c r="U30">
-        <v>2.7090000000000001</v>
-      </c>
-      <c r="X30">
-        <v>25</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>44707.833333333336</v>
-      </c>
-      <c r="AA30">
-        <v>15</v>
-      </c>
-      <c r="AB30">
-        <v>7.4649999999999999</v>
-      </c>
-      <c r="AC30">
-        <v>9.2439999999999998</v>
-      </c>
-      <c r="AF30">
-        <v>25</v>
-      </c>
-      <c r="AH30" s="1">
-        <v>44707.833333333336</v>
-      </c>
-      <c r="AI30">
-        <v>15</v>
-      </c>
-      <c r="AJ30">
-        <v>1.746</v>
-      </c>
-      <c r="AK30">
-        <v>3.2879999999999998</v>
-      </c>
-      <c r="AN30">
-        <v>25</v>
-      </c>
-      <c r="AP30" s="1">
-        <v>44707.833333333336</v>
-      </c>
-      <c r="AQ30">
-        <v>15</v>
-      </c>
-      <c r="AR30">
-        <v>2.375</v>
-      </c>
-      <c r="AS30">
-        <v>5.3650000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>26</v>
-      </c>
-      <c r="C31" s="1">
-        <v>44713.875</v>
-      </c>
-      <c r="D31">
-        <v>6.75</v>
-      </c>
-      <c r="E31">
-        <v>0.1106</v>
-      </c>
-      <c r="F31">
-        <v>0.129</v>
-      </c>
-      <c r="H31">
-        <v>26</v>
-      </c>
-      <c r="J31" s="1">
-        <v>44713.875</v>
-      </c>
-      <c r="K31">
-        <v>6.75</v>
-      </c>
-      <c r="L31">
-        <v>1.65</v>
-      </c>
-      <c r="M31">
-        <v>2.7440000000000002</v>
-      </c>
-      <c r="P31">
-        <v>26</v>
-      </c>
-      <c r="R31" s="1">
-        <v>44713.875</v>
-      </c>
-      <c r="S31">
-        <v>6.75</v>
-      </c>
-      <c r="T31">
-        <v>2.3580000000000001</v>
-      </c>
-      <c r="U31">
-        <v>5.16</v>
-      </c>
-      <c r="X31">
-        <v>26</v>
-      </c>
-      <c r="Z31" s="1">
-        <v>44713.875</v>
-      </c>
-      <c r="AA31">
-        <v>6.75</v>
-      </c>
-      <c r="AB31">
-        <v>10.88</v>
-      </c>
-      <c r="AC31">
-        <v>16.89</v>
-      </c>
-      <c r="AF31">
-        <v>26</v>
-      </c>
-      <c r="AH31" s="1">
-        <v>44713.875</v>
-      </c>
-      <c r="AI31">
-        <v>6.75</v>
-      </c>
-      <c r="AJ31">
-        <v>4.5659999999999998</v>
-      </c>
-      <c r="AK31">
-        <v>6.8040000000000003</v>
-      </c>
-      <c r="AN31">
-        <v>26</v>
-      </c>
-      <c r="AP31" s="1">
-        <v>44713.875</v>
-      </c>
-      <c r="AQ31">
-        <v>6.75</v>
-      </c>
-      <c r="AR31">
-        <v>5.1210000000000004</v>
-      </c>
-      <c r="AS31">
-        <v>20.71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>27</v>
-      </c>
-      <c r="C32" s="1">
-        <v>44714.59375</v>
-      </c>
-      <c r="D32">
-        <v>7</v>
-      </c>
-      <c r="E32">
-        <v>0.16109999999999999</v>
-      </c>
-      <c r="F32">
-        <v>0.30359999999999998</v>
-      </c>
-      <c r="H32">
-        <v>27</v>
-      </c>
-      <c r="J32" s="1">
-        <v>44714.59375</v>
-      </c>
-      <c r="K32">
-        <v>7</v>
-      </c>
-      <c r="L32">
-        <v>2.5089999999999999</v>
-      </c>
-      <c r="M32">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="P32">
-        <v>27</v>
-      </c>
-      <c r="R32" s="1">
-        <v>44714.59375</v>
-      </c>
-      <c r="S32">
-        <v>7</v>
-      </c>
-      <c r="T32">
-        <v>4.1459999999999999</v>
-      </c>
-      <c r="U32">
-        <v>18.55</v>
-      </c>
-      <c r="X32">
-        <v>27</v>
-      </c>
-      <c r="Z32" s="1">
-        <v>44714.59375</v>
-      </c>
-      <c r="AA32">
-        <v>7</v>
-      </c>
-      <c r="AB32">
-        <v>23.99</v>
-      </c>
-      <c r="AC32">
-        <v>23.12</v>
-      </c>
-      <c r="AF32">
-        <v>27</v>
-      </c>
-      <c r="AH32" s="1">
-        <v>44714.59375</v>
-      </c>
-      <c r="AI32">
-        <v>7</v>
-      </c>
-      <c r="AJ32">
-        <v>6.2220000000000004</v>
-      </c>
-      <c r="AK32">
-        <v>3.8</v>
-      </c>
-      <c r="AN32">
-        <v>27</v>
-      </c>
-      <c r="AP32" s="1">
-        <v>44714.59375</v>
-      </c>
-      <c r="AQ32">
-        <v>7</v>
-      </c>
-      <c r="AR32">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="AS32">
-        <v>22.56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>28</v>
-      </c>
-      <c r="C33" s="1">
-        <v>44719.21875</v>
-      </c>
-      <c r="D33">
-        <v>8</v>
-      </c>
-      <c r="E33">
-        <v>2.861E-2</v>
-      </c>
-      <c r="F33">
-        <v>7.3620000000000005E-2</v>
-      </c>
-      <c r="H33">
-        <v>28</v>
-      </c>
-      <c r="J33" s="1">
-        <v>44719.21875</v>
-      </c>
-      <c r="K33">
-        <v>8</v>
-      </c>
-      <c r="L33">
-        <v>0.48209999999999997</v>
-      </c>
-      <c r="M33">
-        <v>1.653</v>
-      </c>
-      <c r="P33">
-        <v>28</v>
-      </c>
-      <c r="R33" s="1">
-        <v>44719.21875</v>
-      </c>
-      <c r="S33">
-        <v>8</v>
-      </c>
-      <c r="T33">
-        <v>1.1890000000000001</v>
-      </c>
-      <c r="U33">
-        <v>3.7109999999999999</v>
-      </c>
-      <c r="X33">
-        <v>28</v>
-      </c>
-      <c r="Z33" s="1">
-        <v>44719.21875</v>
-      </c>
-      <c r="AA33">
-        <v>8</v>
-      </c>
-      <c r="AB33">
-        <v>7.3109999999999999</v>
-      </c>
-      <c r="AC33">
-        <v>10.41</v>
-      </c>
-      <c r="AF33">
-        <v>28</v>
-      </c>
-      <c r="AH33" s="1">
-        <v>44719.21875</v>
-      </c>
-      <c r="AI33">
-        <v>8</v>
-      </c>
-      <c r="AJ33">
-        <v>1.5429999999999999</v>
-      </c>
-      <c r="AK33">
-        <v>2.0139999999999998</v>
-      </c>
-      <c r="AN33">
-        <v>28</v>
-      </c>
-      <c r="AP33" s="1">
-        <v>44719.21875</v>
-      </c>
-      <c r="AQ33">
-        <v>8</v>
-      </c>
-      <c r="AR33">
-        <v>3.2879999999999998</v>
-      </c>
-      <c r="AS33">
-        <v>8.5990000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>29</v>
-      </c>
-      <c r="C34" s="1">
-        <v>44719.8125</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <v>0.1028</v>
-      </c>
-      <c r="F34">
-        <v>0.14979999999999999</v>
-      </c>
-      <c r="H34">
-        <v>29</v>
-      </c>
-      <c r="J34" s="1">
-        <v>44719.8125</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1.6240000000000001</v>
-      </c>
-      <c r="M34">
-        <v>3.1890000000000001</v>
-      </c>
-      <c r="P34">
-        <v>29</v>
-      </c>
-      <c r="R34" s="1">
-        <v>44719.8125</v>
-      </c>
-      <c r="S34">
-        <v>3</v>
-      </c>
-      <c r="T34">
-        <v>4.1479999999999997</v>
-      </c>
-      <c r="U34">
-        <v>18.54</v>
-      </c>
-      <c r="X34">
-        <v>29</v>
-      </c>
-      <c r="Z34" s="1">
-        <v>44719.8125</v>
-      </c>
-      <c r="AA34">
-        <v>3</v>
-      </c>
-      <c r="AB34">
-        <v>19.350000000000001</v>
-      </c>
-      <c r="AC34">
-        <v>30.1</v>
-      </c>
-      <c r="AF34">
-        <v>29</v>
-      </c>
-      <c r="AH34" s="1">
-        <v>44719.8125</v>
-      </c>
-      <c r="AI34">
-        <v>3</v>
-      </c>
-      <c r="AJ34">
-        <v>5.3419999999999996</v>
-      </c>
-      <c r="AK34">
-        <v>2.6720000000000002</v>
-      </c>
-      <c r="AN34">
-        <v>29</v>
-      </c>
-      <c r="AP34" s="1">
-        <v>44719.8125</v>
-      </c>
-      <c r="AQ34">
-        <v>3</v>
-      </c>
-      <c r="AR34">
-        <v>7.8280000000000003</v>
-      </c>
-      <c r="AS34">
-        <v>15.73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>30</v>
-      </c>
-      <c r="C35" s="1">
-        <v>44720.875</v>
-      </c>
-      <c r="D35">
-        <v>6.75</v>
-      </c>
-      <c r="E35">
-        <v>9.0929999999999997E-2</v>
-      </c>
-      <c r="F35">
-        <v>0.29389999999999999</v>
-      </c>
-      <c r="H35">
-        <v>30</v>
-      </c>
-      <c r="J35" s="1">
-        <v>44720.875</v>
-      </c>
-      <c r="K35">
-        <v>6.75</v>
-      </c>
-      <c r="L35">
-        <v>1.446</v>
-      </c>
-      <c r="M35">
-        <v>6.0839999999999996</v>
-      </c>
-      <c r="P35">
-        <v>30</v>
-      </c>
-      <c r="R35" s="1">
-        <v>44720.875</v>
-      </c>
-      <c r="S35">
-        <v>6.75</v>
-      </c>
-      <c r="T35">
-        <v>2.63</v>
-      </c>
-      <c r="U35">
-        <v>8.42</v>
-      </c>
-      <c r="X35">
-        <v>30</v>
-      </c>
-      <c r="Z35" s="1">
-        <v>44720.875</v>
-      </c>
-      <c r="AA35">
-        <v>6.75</v>
-      </c>
-      <c r="AB35">
-        <v>10.32</v>
-      </c>
-      <c r="AC35">
-        <v>9.8680000000000003</v>
-      </c>
-      <c r="AF35">
-        <v>30</v>
-      </c>
-      <c r="AH35" s="1">
-        <v>44720.875</v>
-      </c>
-      <c r="AI35">
-        <v>6.75</v>
-      </c>
-      <c r="AJ35">
-        <v>4.3780000000000001</v>
-      </c>
-      <c r="AK35">
-        <v>2.2149999999999999</v>
-      </c>
-      <c r="AN35">
-        <v>30</v>
-      </c>
-      <c r="AP35" s="1">
-        <v>44720.875</v>
-      </c>
-      <c r="AQ35">
-        <v>6.75</v>
-      </c>
-      <c r="AR35">
-        <v>3.89</v>
-      </c>
-      <c r="AS35">
-        <v>11.94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>31</v>
-      </c>
-      <c r="C36" s="1">
-        <v>44726.145833333336</v>
-      </c>
-      <c r="D36">
-        <v>8</v>
-      </c>
-      <c r="E36">
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="F36">
-        <v>1.9259999999999999E-2</v>
-      </c>
-      <c r="H36">
-        <v>31</v>
-      </c>
-      <c r="J36" s="1">
-        <v>44726.145833333336</v>
-      </c>
-      <c r="K36">
-        <v>8</v>
-      </c>
-      <c r="L36">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="M36">
-        <v>0.38419999999999999</v>
-      </c>
-      <c r="P36">
-        <v>31</v>
-      </c>
-      <c r="R36" s="1">
-        <v>44726.145833333336</v>
-      </c>
-      <c r="S36">
-        <v>8</v>
-      </c>
-      <c r="T36">
-        <v>0.51849999999999996</v>
-      </c>
-      <c r="U36">
-        <v>0.90129999999999999</v>
-      </c>
-      <c r="X36">
-        <v>31</v>
-      </c>
-      <c r="Z36" s="1">
-        <v>44726.145833333336</v>
-      </c>
-      <c r="AA36">
-        <v>8</v>
-      </c>
-      <c r="AB36">
-        <v>2.77</v>
-      </c>
-      <c r="AC36">
-        <v>1.7190000000000001</v>
-      </c>
-      <c r="AF36">
-        <v>31</v>
-      </c>
-      <c r="AH36" s="1">
-        <v>44726.145833333336</v>
-      </c>
-      <c r="AI36">
-        <v>8</v>
-      </c>
-      <c r="AJ36">
-        <v>0.79669999999999996</v>
-      </c>
-      <c r="AK36">
-        <v>1.139</v>
-      </c>
-      <c r="AN36">
-        <v>31</v>
-      </c>
-      <c r="AP36" s="1">
-        <v>44726.145833333336</v>
-      </c>
-      <c r="AQ36">
-        <v>8</v>
-      </c>
-      <c r="AR36">
-        <v>1.1619999999999999</v>
-      </c>
-      <c r="AS36">
-        <v>1.9019999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>32</v>
-      </c>
-      <c r="C37" s="1">
-        <v>44744.010416666664</v>
-      </c>
-      <c r="D37">
-        <v>7</v>
-      </c>
-      <c r="E37">
-        <v>1.145E-2</v>
-      </c>
-      <c r="F37">
-        <v>8.6639999999999998E-3</v>
-      </c>
-      <c r="H37">
-        <v>32</v>
-      </c>
-      <c r="J37" s="1">
-        <v>44744.010416666664</v>
-      </c>
-      <c r="K37">
-        <v>7</v>
-      </c>
-      <c r="L37">
-        <v>0.12239999999999999</v>
-      </c>
-      <c r="M37">
-        <v>0.25580000000000003</v>
-      </c>
-      <c r="P37">
-        <v>32</v>
-      </c>
-      <c r="R37" s="1">
-        <v>44744.010416666664</v>
-      </c>
-      <c r="S37">
-        <v>7</v>
-      </c>
-      <c r="T37">
-        <v>0.29449999999999998</v>
-      </c>
-      <c r="U37">
-        <v>0.44650000000000001</v>
-      </c>
-      <c r="X37">
-        <v>32</v>
-      </c>
-      <c r="Z37" s="1">
-        <v>44744.010416666664</v>
-      </c>
-      <c r="AA37">
-        <v>7</v>
-      </c>
-      <c r="AB37">
-        <v>1.9630000000000001</v>
-      </c>
-      <c r="AC37">
-        <v>1.57</v>
-      </c>
-      <c r="AF37">
-        <v>32</v>
-      </c>
-      <c r="AH37" s="1">
-        <v>44744.010416666664</v>
-      </c>
-      <c r="AI37">
-        <v>7</v>
-      </c>
-      <c r="AJ37">
-        <v>0.45839999999999997</v>
-      </c>
-      <c r="AK37">
-        <v>1.095</v>
-      </c>
-      <c r="AN37">
-        <v>32</v>
-      </c>
-      <c r="AP37" s="1">
-        <v>44744.010416666664</v>
-      </c>
-      <c r="AQ37">
-        <v>7</v>
-      </c>
-      <c r="AR37">
-        <v>1.1080000000000001</v>
-      </c>
-      <c r="AS37">
-        <v>2.2320000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>33</v>
-      </c>
-      <c r="C38" s="1">
-        <v>44747.416666666664</v>
-      </c>
-      <c r="D38">
-        <v>2.75</v>
-      </c>
-      <c r="E38">
-        <v>2.9909999999999999E-2</v>
-      </c>
-      <c r="F38">
-        <v>2.0129999999999999E-2</v>
-      </c>
-      <c r="H38">
-        <v>33</v>
-      </c>
-      <c r="J38" s="1">
-        <v>44747.416666666664</v>
-      </c>
-      <c r="K38">
-        <v>2.75</v>
-      </c>
-      <c r="L38">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="M38">
-        <v>0.69969999999999999</v>
-      </c>
-      <c r="P38">
-        <v>33</v>
-      </c>
-      <c r="R38" s="1">
-        <v>44747.416666666664</v>
-      </c>
-      <c r="S38">
-        <v>2.75</v>
-      </c>
-      <c r="T38">
-        <v>0.73029999999999995</v>
-      </c>
-      <c r="U38">
-        <v>1.302</v>
-      </c>
-      <c r="X38">
-        <v>33</v>
-      </c>
-      <c r="Z38" s="1">
-        <v>44747.416666666664</v>
-      </c>
-      <c r="AA38">
-        <v>2.75</v>
-      </c>
-      <c r="AB38">
-        <v>2.5</v>
-      </c>
-      <c r="AC38">
-        <v>3.9049999999999998</v>
-      </c>
-      <c r="AF38">
-        <v>33</v>
-      </c>
-      <c r="AH38" s="1">
-        <v>44747.416666666664</v>
-      </c>
-      <c r="AI38">
-        <v>2.75</v>
-      </c>
-      <c r="AJ38">
-        <v>1.0569999999999999</v>
-      </c>
-      <c r="AK38">
-        <v>1.728</v>
-      </c>
-      <c r="AN38">
-        <v>33</v>
-      </c>
-      <c r="AP38" s="1">
-        <v>44747.416666666664</v>
-      </c>
-      <c r="AQ38">
-        <v>2.75</v>
-      </c>
-      <c r="AR38">
-        <v>1.196</v>
-      </c>
-      <c r="AS38">
-        <v>3.286</v>
-      </c>
-    </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>34</v>
-      </c>
-      <c r="C39" s="1">
-        <v>44748.708333333336</v>
-      </c>
-      <c r="D39">
-        <v>4.25</v>
-      </c>
-      <c r="E39">
-        <v>0.17449999999999999</v>
-      </c>
-      <c r="F39">
-        <v>0.32269999999999999</v>
-      </c>
-      <c r="H39">
-        <v>34</v>
-      </c>
-      <c r="J39" s="1">
-        <v>44748.708333333336</v>
-      </c>
-      <c r="K39">
-        <v>4.25</v>
-      </c>
-      <c r="L39">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="M39">
-        <v>4.4139999999999997</v>
-      </c>
-      <c r="P39">
-        <v>34</v>
-      </c>
-      <c r="R39" s="1">
-        <v>44748.708333333336</v>
-      </c>
-      <c r="S39">
-        <v>4.25</v>
-      </c>
-      <c r="T39">
-        <v>8.0370000000000008</v>
-      </c>
-      <c r="U39">
-        <v>19.5</v>
-      </c>
-      <c r="X39">
-        <v>34</v>
-      </c>
-      <c r="Z39" s="1">
-        <v>44748.708333333336</v>
-      </c>
-      <c r="AA39">
-        <v>4.25</v>
-      </c>
-      <c r="AB39">
-        <v>41.55</v>
-      </c>
-      <c r="AC39">
-        <v>47.56</v>
-      </c>
-      <c r="AF39">
-        <v>34</v>
-      </c>
-      <c r="AH39" s="1">
-        <v>44748.708333333336</v>
-      </c>
-      <c r="AI39">
-        <v>4.25</v>
-      </c>
-      <c r="AJ39">
-        <v>8.8510000000000009</v>
-      </c>
-      <c r="AK39">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="AN39">
-        <v>34</v>
-      </c>
-      <c r="AP39" s="1">
-        <v>44748.708333333336</v>
-      </c>
-      <c r="AQ39">
-        <v>4.25</v>
-      </c>
-      <c r="AR39">
-        <v>22.25</v>
-      </c>
-      <c r="AS39">
-        <v>32.950000000000003</v>
-      </c>
-    </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>35</v>
-      </c>
-      <c r="C40" s="1">
-        <v>44755.833333333336</v>
-      </c>
-      <c r="D40">
-        <v>5.25</v>
-      </c>
-      <c r="E40">
-        <v>2.7089999999999999E-2</v>
-      </c>
-      <c r="F40">
-        <v>3.3439999999999998E-2</v>
-      </c>
-      <c r="H40">
-        <v>35</v>
-      </c>
-      <c r="J40" s="1">
-        <v>44755.833333333336</v>
-      </c>
-      <c r="K40">
-        <v>5.25</v>
-      </c>
-      <c r="L40">
-        <v>0.36649999999999999</v>
-      </c>
-      <c r="M40">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="P40">
-        <v>35</v>
-      </c>
-      <c r="R40" s="1">
-        <v>44755.833333333336</v>
-      </c>
-      <c r="S40">
-        <v>5.25</v>
-      </c>
-      <c r="T40">
-        <v>0.72130000000000005</v>
-      </c>
-      <c r="U40">
-        <v>1.1850000000000001</v>
-      </c>
-      <c r="X40">
-        <v>35</v>
-      </c>
-      <c r="Z40" s="1">
-        <v>44755.833333333336</v>
-      </c>
-      <c r="AA40">
-        <v>5.25</v>
-      </c>
-      <c r="AB40">
-        <v>3.2189999999999999</v>
-      </c>
-      <c r="AC40">
-        <v>3.73</v>
-      </c>
-      <c r="AF40">
-        <v>35</v>
-      </c>
-      <c r="AH40" s="1">
-        <v>44755.833333333336</v>
-      </c>
-      <c r="AI40">
-        <v>5.25</v>
-      </c>
-      <c r="AJ40">
-        <v>1.091</v>
-      </c>
-      <c r="AK40">
-        <v>1.748</v>
-      </c>
-      <c r="AN40">
-        <v>35</v>
-      </c>
-      <c r="AP40" s="1">
-        <v>44755.833333333336</v>
-      </c>
-      <c r="AQ40">
-        <v>5.25</v>
-      </c>
-      <c r="AR40">
-        <v>0.96919999999999995</v>
-      </c>
-      <c r="AS40">
-        <v>2.706</v>
-      </c>
-    </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>36</v>
-      </c>
-      <c r="C41" s="1">
-        <v>44759.583333333336</v>
-      </c>
-      <c r="D41">
-        <v>14.5</v>
-      </c>
-      <c r="E41">
-        <v>4.6719999999999998E-2</v>
-      </c>
-      <c r="F41">
-        <v>0.1467</v>
-      </c>
-      <c r="H41">
-        <v>36</v>
-      </c>
-      <c r="J41" s="1">
-        <v>44759.583333333336</v>
-      </c>
-      <c r="K41">
-        <v>14.5</v>
-      </c>
-      <c r="L41">
-        <v>0.68340000000000001</v>
-      </c>
-      <c r="M41">
-        <v>2.694</v>
-      </c>
-      <c r="P41">
-        <v>36</v>
-      </c>
-      <c r="R41" s="1">
-        <v>44759.583333333336</v>
-      </c>
-      <c r="S41">
-        <v>14.5</v>
-      </c>
-      <c r="T41">
-        <v>2.3540000000000001</v>
-      </c>
-      <c r="U41">
-        <v>6.57</v>
-      </c>
-      <c r="X41">
-        <v>36</v>
-      </c>
-      <c r="Z41" s="1">
-        <v>44759.583333333336</v>
-      </c>
-      <c r="AA41">
-        <v>14.5</v>
-      </c>
-      <c r="AB41">
-        <v>16</v>
-      </c>
-      <c r="AC41">
-        <v>17.59</v>
-      </c>
-      <c r="AF41">
-        <v>36</v>
-      </c>
-      <c r="AH41" s="1">
-        <v>44759.583333333336</v>
-      </c>
-      <c r="AI41">
-        <v>14.5</v>
-      </c>
-      <c r="AJ41">
-        <v>2.617</v>
-      </c>
-      <c r="AK41">
-        <v>8.7530000000000001</v>
-      </c>
-      <c r="AN41">
-        <v>36</v>
-      </c>
-      <c r="AP41" s="1">
-        <v>44759.583333333336</v>
-      </c>
-      <c r="AQ41">
-        <v>14.5</v>
-      </c>
-      <c r="AR41">
-        <v>7.0439999999999996</v>
-      </c>
-      <c r="AS41">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>37</v>
-      </c>
-      <c r="C42" s="1">
-        <v>44760.333333333336</v>
-      </c>
-      <c r="D42">
-        <v>7.5</v>
-      </c>
-      <c r="E42">
-        <v>1.8329999999999999E-2</v>
-      </c>
-      <c r="F42">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="H42">
-        <v>37</v>
-      </c>
-      <c r="J42" s="1">
-        <v>44760.333333333336</v>
-      </c>
-      <c r="K42">
-        <v>7.5</v>
-      </c>
-      <c r="L42">
-        <v>0.31180000000000002</v>
-      </c>
-      <c r="M42">
-        <v>0.51370000000000005</v>
-      </c>
-      <c r="P42">
-        <v>37</v>
-      </c>
-      <c r="R42" s="1">
-        <v>44760.333333333336</v>
-      </c>
-      <c r="S42">
-        <v>7.5</v>
-      </c>
-      <c r="T42">
-        <v>0.8054</v>
-      </c>
-      <c r="U42">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="X42">
-        <v>37</v>
-      </c>
-      <c r="Z42" s="1">
-        <v>44760.333333333336</v>
-      </c>
-      <c r="AA42">
-        <v>7.5</v>
-      </c>
-      <c r="AB42">
-        <v>5.9109999999999996</v>
-      </c>
-      <c r="AC42">
-        <v>6.7160000000000002</v>
-      </c>
-      <c r="AF42">
-        <v>37</v>
-      </c>
-      <c r="AH42" s="1">
-        <v>44760.333333333336</v>
-      </c>
-      <c r="AI42">
-        <v>7.5</v>
-      </c>
-      <c r="AJ42">
-        <v>1.169</v>
-      </c>
-      <c r="AK42">
-        <v>1.425</v>
-      </c>
-      <c r="AN42">
-        <v>37</v>
-      </c>
-      <c r="AP42" s="1">
-        <v>44760.333333333336</v>
-      </c>
-      <c r="AQ42">
-        <v>7.5</v>
-      </c>
-      <c r="AR42">
-        <v>2.3959999999999999</v>
-      </c>
-      <c r="AS42">
-        <v>3.9390000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>38</v>
-      </c>
-      <c r="C43" s="1">
-        <v>44778.46875</v>
-      </c>
-      <c r="D43">
-        <v>10</v>
-      </c>
-      <c r="E43">
-        <v>0.3896</v>
-      </c>
-      <c r="F43">
-        <v>0.43130000000000002</v>
-      </c>
-      <c r="H43">
-        <v>38</v>
-      </c>
-      <c r="J43" s="1">
-        <v>44778.46875</v>
-      </c>
-      <c r="K43">
-        <v>10</v>
-      </c>
-      <c r="L43">
-        <v>5.8390000000000004</v>
-      </c>
-      <c r="M43">
-        <v>9.9740000000000002</v>
-      </c>
-      <c r="P43">
-        <v>38</v>
-      </c>
-      <c r="R43" s="1">
-        <v>44778.46875</v>
-      </c>
-      <c r="S43">
-        <v>10</v>
-      </c>
-      <c r="T43">
-        <v>10.32</v>
-      </c>
-      <c r="U43">
-        <v>40.049999999999997</v>
-      </c>
-      <c r="X43">
-        <v>38</v>
-      </c>
-      <c r="Z43" s="1">
-        <v>44778.46875</v>
-      </c>
-      <c r="AA43">
-        <v>10</v>
-      </c>
-      <c r="AB43">
-        <v>30.25</v>
-      </c>
-      <c r="AC43">
-        <v>37.22</v>
-      </c>
-      <c r="AF43">
-        <v>38</v>
-      </c>
-      <c r="AH43" s="1">
-        <v>44778.46875</v>
-      </c>
-      <c r="AI43">
-        <v>10</v>
-      </c>
-      <c r="AJ43">
-        <v>14.72</v>
-      </c>
-      <c r="AK43">
-        <v>42.5</v>
-      </c>
-      <c r="AN43">
-        <v>38</v>
-      </c>
-      <c r="AP43" s="1">
-        <v>44778.46875</v>
-      </c>
-      <c r="AQ43">
-        <v>10</v>
-      </c>
-      <c r="AR43">
-        <v>17.05</v>
-      </c>
-      <c r="AS43">
-        <v>22.92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>39</v>
-      </c>
-      <c r="C44" s="1">
-        <v>44779.364583333336</v>
-      </c>
-      <c r="D44">
-        <v>9</v>
-      </c>
-      <c r="E44">
-        <v>3.9660000000000001E-2</v>
-      </c>
-      <c r="F44">
-        <v>7.6130000000000003E-2</v>
-      </c>
-      <c r="H44">
-        <v>39</v>
-      </c>
-      <c r="J44" s="1">
-        <v>44779.364583333336</v>
-      </c>
-      <c r="K44">
-        <v>9</v>
-      </c>
-      <c r="L44">
-        <v>0.61729999999999996</v>
-      </c>
-      <c r="M44">
-        <v>1.554</v>
-      </c>
-      <c r="P44">
-        <v>39</v>
-      </c>
-      <c r="R44" s="1">
-        <v>44779.364583333336</v>
-      </c>
-      <c r="S44">
-        <v>9</v>
-      </c>
-      <c r="T44">
-        <v>1.548</v>
-      </c>
-      <c r="U44">
-        <v>6.3010000000000002</v>
-      </c>
-      <c r="X44">
-        <v>39</v>
-      </c>
-      <c r="Z44" s="1">
-        <v>44779.364583333336</v>
-      </c>
-      <c r="AA44">
-        <v>9</v>
-      </c>
-      <c r="AB44">
-        <v>8.4369999999999994</v>
-      </c>
-      <c r="AC44">
-        <v>11.82</v>
-      </c>
-      <c r="AF44">
-        <v>39</v>
-      </c>
-      <c r="AH44" s="1">
-        <v>44779.364583333336</v>
-      </c>
-      <c r="AI44">
-        <v>9</v>
-      </c>
-      <c r="AJ44">
-        <v>2.012</v>
-      </c>
-      <c r="AK44">
-        <v>8.2859999999999996</v>
-      </c>
-      <c r="AN44">
-        <v>39</v>
-      </c>
-      <c r="AP44" s="1">
-        <v>44779.364583333336</v>
-      </c>
-      <c r="AQ44">
-        <v>9</v>
-      </c>
-      <c r="AR44">
-        <v>5.0890000000000004</v>
-      </c>
-      <c r="AS44">
-        <v>10.32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>40</v>
-      </c>
-      <c r="C45" s="1">
-        <v>44780.072916666664</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45">
-        <v>6.6949999999999996E-2</v>
-      </c>
-      <c r="F45">
-        <v>0.1943</v>
-      </c>
-      <c r="H45">
-        <v>40</v>
-      </c>
-      <c r="J45" s="1">
-        <v>44780.072916666664</v>
-      </c>
-      <c r="K45">
-        <v>3</v>
-      </c>
-      <c r="L45">
-        <v>1.032</v>
-      </c>
-      <c r="M45">
-        <v>1.956</v>
-      </c>
-      <c r="P45">
-        <v>40</v>
-      </c>
-      <c r="R45" s="1">
-        <v>44780.072916666664</v>
-      </c>
-      <c r="S45">
-        <v>3</v>
-      </c>
-      <c r="T45">
-        <v>1.768</v>
-      </c>
-      <c r="U45">
-        <v>4.6989999999999998</v>
-      </c>
-      <c r="X45">
-        <v>40</v>
-      </c>
-      <c r="Z45" s="1">
-        <v>44780.072916666664</v>
-      </c>
-      <c r="AA45">
-        <v>3</v>
-      </c>
-      <c r="AB45">
-        <v>6.75</v>
-      </c>
-      <c r="AC45">
-        <v>12.34</v>
-      </c>
-      <c r="AF45">
-        <v>40</v>
-      </c>
-      <c r="AH45" s="1">
-        <v>44780.072916666664</v>
-      </c>
-      <c r="AI45">
-        <v>3</v>
-      </c>
-      <c r="AJ45">
-        <v>2.76</v>
-      </c>
-      <c r="AK45">
-        <v>8.9130000000000003</v>
-      </c>
-      <c r="AN45">
-        <v>40</v>
-      </c>
-      <c r="AP45" s="1">
-        <v>44780.072916666664</v>
-      </c>
-      <c r="AQ45">
-        <v>3</v>
-      </c>
-      <c r="AR45">
-        <v>3.3130000000000002</v>
-      </c>
-      <c r="AS45">
-        <v>7.9249999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>41</v>
-      </c>
-      <c r="C46" s="1">
-        <v>44780.5</v>
-      </c>
-      <c r="D46">
-        <v>6.5</v>
-      </c>
-      <c r="E46">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="F46">
-        <v>3.7719999999999997E-2</v>
-      </c>
-      <c r="H46">
-        <v>41</v>
-      </c>
-      <c r="J46" s="1">
-        <v>44780.5</v>
-      </c>
-      <c r="K46">
-        <v>6.5</v>
-      </c>
-      <c r="L46">
-        <v>0.67669999999999997</v>
-      </c>
-      <c r="M46">
-        <v>0.59119999999999995</v>
-      </c>
-      <c r="P46">
-        <v>41</v>
-      </c>
-      <c r="R46" s="1">
-        <v>44780.5</v>
-      </c>
-      <c r="S46">
-        <v>6.5</v>
-      </c>
-      <c r="T46">
-        <v>1.5129999999999999</v>
-      </c>
-      <c r="U46">
-        <v>1.851</v>
-      </c>
-      <c r="X46">
-        <v>41</v>
-      </c>
-      <c r="Z46" s="1">
-        <v>44780.5</v>
-      </c>
-      <c r="AA46">
-        <v>6.5</v>
-      </c>
-      <c r="AB46">
-        <v>17.940000000000001</v>
-      </c>
-      <c r="AC46">
-        <v>5.8150000000000004</v>
-      </c>
-      <c r="AF46">
-        <v>41</v>
-      </c>
-      <c r="AH46" s="1">
-        <v>44780.5</v>
-      </c>
-      <c r="AI46">
-        <v>6.5</v>
-      </c>
-      <c r="AJ46">
-        <v>1.5069999999999999</v>
-      </c>
-      <c r="AK46">
-        <v>1.742</v>
-      </c>
-      <c r="AN46">
-        <v>41</v>
-      </c>
-      <c r="AP46" s="1">
-        <v>44780.5</v>
-      </c>
-      <c r="AQ46">
-        <v>6.5</v>
-      </c>
-      <c r="AR46">
-        <v>9.718</v>
-      </c>
-      <c r="AS46">
-        <v>2.5070000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>42</v>
-      </c>
-      <c r="C47" s="1">
-        <v>44788.729166666664</v>
-      </c>
-      <c r="D47">
-        <v>7</v>
-      </c>
-      <c r="E47">
-        <v>5.108E-2</v>
-      </c>
-      <c r="F47">
-        <v>6.096E-2</v>
-      </c>
-      <c r="H47">
-        <v>42</v>
-      </c>
-      <c r="J47" s="1">
-        <v>44788.729166666664</v>
-      </c>
-      <c r="K47">
-        <v>7</v>
-      </c>
-      <c r="L47">
-        <v>0.73980000000000001</v>
-      </c>
-      <c r="M47">
-        <v>1.099</v>
-      </c>
-      <c r="P47">
-        <v>42</v>
-      </c>
-      <c r="R47" s="1">
-        <v>44788.729166666664</v>
-      </c>
-      <c r="S47">
-        <v>7</v>
-      </c>
-      <c r="T47">
-        <v>1.5960000000000001</v>
-      </c>
-      <c r="U47">
-        <v>5.28</v>
-      </c>
-      <c r="X47">
-        <v>42</v>
-      </c>
-      <c r="Z47" s="1">
-        <v>44788.729166666664</v>
-      </c>
-      <c r="AA47">
-        <v>7</v>
-      </c>
-      <c r="AB47">
-        <v>9.8330000000000002</v>
-      </c>
-      <c r="AC47">
-        <v>8.3070000000000004</v>
-      </c>
-      <c r="AF47">
-        <v>42</v>
-      </c>
-      <c r="AH47" s="1">
-        <v>44788.729166666664</v>
-      </c>
-      <c r="AI47">
-        <v>7</v>
-      </c>
-      <c r="AJ47">
-        <v>2.355</v>
-      </c>
-      <c r="AK47">
-        <v>3.2919999999999998</v>
-      </c>
-      <c r="AN47">
-        <v>42</v>
-      </c>
-      <c r="AP47" s="1">
-        <v>44788.729166666664</v>
-      </c>
-      <c r="AQ47">
-        <v>7</v>
-      </c>
-      <c r="AR47">
-        <v>3.6779999999999999</v>
-      </c>
-      <c r="AS47">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>43</v>
-      </c>
-      <c r="C48" s="1">
-        <v>44789.885416666664</v>
-      </c>
-      <c r="D48">
-        <v>16</v>
-      </c>
-      <c r="E48">
-        <v>3.4079999999999999E-2</v>
-      </c>
-      <c r="F48">
-        <v>2.8840000000000001E-2</v>
-      </c>
-      <c r="H48">
-        <v>43</v>
-      </c>
-      <c r="J48" s="1">
-        <v>44789.885416666664</v>
-      </c>
-      <c r="K48">
-        <v>16</v>
-      </c>
-      <c r="L48">
-        <v>0.48880000000000001</v>
-      </c>
-      <c r="M48">
-        <v>0.71379999999999999</v>
-      </c>
-      <c r="P48">
-        <v>43</v>
-      </c>
-      <c r="R48" s="1">
-        <v>44789.885416666664</v>
-      </c>
-      <c r="S48">
-        <v>16</v>
-      </c>
-      <c r="T48">
-        <v>0.54379999999999995</v>
-      </c>
-      <c r="U48">
-        <v>1.284</v>
-      </c>
-      <c r="X48">
-        <v>43</v>
-      </c>
-      <c r="Z48" s="1">
-        <v>44789.885416666664</v>
-      </c>
-      <c r="AA48">
-        <v>16</v>
-      </c>
-      <c r="AB48">
-        <v>3.512</v>
-      </c>
-      <c r="AC48">
-        <v>3.3889999999999998</v>
-      </c>
-      <c r="AF48">
-        <v>43</v>
-      </c>
-      <c r="AH48" s="1">
-        <v>44789.885416666664</v>
-      </c>
-      <c r="AI48">
-        <v>16</v>
-      </c>
-      <c r="AJ48">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="AK48">
-        <v>1.794</v>
-      </c>
-      <c r="AN48">
-        <v>43</v>
-      </c>
-      <c r="AP48" s="1">
-        <v>44789.885416666664</v>
-      </c>
-      <c r="AQ48">
-        <v>16</v>
-      </c>
-      <c r="AR48">
-        <v>1.5529999999999999</v>
-      </c>
-      <c r="AS48">
-        <v>3.1909999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>44</v>
-      </c>
-      <c r="C49" s="1">
-        <v>44794</v>
-      </c>
-      <c r="D49">
-        <v>11.75</v>
-      </c>
-      <c r="E49">
-        <v>0.64319999999999999</v>
-      </c>
-      <c r="F49">
-        <v>0.47510000000000002</v>
-      </c>
-      <c r="H49">
-        <v>44</v>
-      </c>
-      <c r="J49" s="1">
-        <v>44794</v>
-      </c>
-      <c r="K49">
-        <v>11.75</v>
-      </c>
-      <c r="L49">
-        <v>12.14</v>
-      </c>
-      <c r="M49">
-        <v>14.35</v>
-      </c>
-      <c r="P49">
-        <v>44</v>
-      </c>
-      <c r="R49" s="1">
-        <v>44794</v>
-      </c>
-      <c r="S49">
-        <v>11.75</v>
-      </c>
-      <c r="T49">
-        <v>16.73</v>
-      </c>
-      <c r="U49">
-        <v>56.99</v>
-      </c>
-      <c r="X49">
-        <v>44</v>
-      </c>
-      <c r="Z49" s="1">
-        <v>44794</v>
-      </c>
-      <c r="AA49">
-        <v>11.75</v>
-      </c>
-      <c r="AB49">
-        <v>43.28</v>
-      </c>
-      <c r="AC49">
-        <v>59.83</v>
-      </c>
-      <c r="AF49">
-        <v>44</v>
-      </c>
-      <c r="AH49" s="1">
-        <v>44794</v>
-      </c>
-      <c r="AI49">
-        <v>11.75</v>
-      </c>
-      <c r="AJ49">
-        <v>32.78</v>
-      </c>
-      <c r="AK49">
-        <v>33.32</v>
-      </c>
-      <c r="AN49">
-        <v>44</v>
-      </c>
-      <c r="AP49" s="1">
-        <v>44794</v>
-      </c>
-      <c r="AQ49">
-        <v>11.75</v>
-      </c>
-      <c r="AR49">
-        <v>19.52</v>
-      </c>
-      <c r="AS49">
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>45</v>
-      </c>
-      <c r="C50" s="1">
-        <v>44794.9375</v>
-      </c>
-      <c r="D50">
-        <v>8.5</v>
-      </c>
-      <c r="E50">
-        <v>3.2750000000000001E-2</v>
-      </c>
-      <c r="F50">
-        <v>4.9399999999999999E-2</v>
-      </c>
-      <c r="H50">
-        <v>45</v>
-      </c>
-      <c r="J50" s="1">
-        <v>44794.9375</v>
-      </c>
-      <c r="K50">
-        <v>8.5</v>
-      </c>
-      <c r="L50">
-        <v>0.54890000000000005</v>
-      </c>
-      <c r="M50">
-        <v>2.3039999999999998</v>
-      </c>
-      <c r="P50">
-        <v>45</v>
-      </c>
-      <c r="R50" s="1">
-        <v>44794.9375</v>
-      </c>
-      <c r="S50">
-        <v>8.5</v>
-      </c>
-      <c r="T50">
-        <v>1.2889999999999999</v>
-      </c>
-      <c r="U50">
-        <v>1.978</v>
-      </c>
-      <c r="X50">
-        <v>45</v>
-      </c>
-      <c r="Z50" s="1">
-        <v>44794.9375</v>
-      </c>
-      <c r="AA50">
-        <v>8.5</v>
-      </c>
-      <c r="AB50">
-        <v>8.0969999999999995</v>
-      </c>
-      <c r="AC50">
-        <v>7.024</v>
-      </c>
-      <c r="AF50">
-        <v>45</v>
-      </c>
-      <c r="AH50" s="1">
-        <v>44794.9375</v>
-      </c>
-      <c r="AI50">
-        <v>8.5</v>
-      </c>
-      <c r="AJ50">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="AK50">
-        <v>2.9369999999999998</v>
-      </c>
-      <c r="AN50">
-        <v>45</v>
-      </c>
-      <c r="AP50" s="1">
-        <v>44794.9375</v>
-      </c>
-      <c r="AQ50">
-        <v>8.5</v>
-      </c>
-      <c r="AR50">
-        <v>3.3330000000000002</v>
-      </c>
-      <c r="AS50">
-        <v>4.7939999999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>46</v>
-      </c>
-      <c r="C51" s="1">
-        <v>44799.104166666664</v>
-      </c>
-      <c r="D51">
-        <v>3.5</v>
-      </c>
-      <c r="E51">
-        <v>3.687E-2</v>
-      </c>
-      <c r="F51">
-        <v>0.17549999999999999</v>
-      </c>
-      <c r="H51">
-        <v>46</v>
-      </c>
-      <c r="J51" s="1">
-        <v>44799.104166666664</v>
-      </c>
-      <c r="K51">
-        <v>3.5</v>
-      </c>
-      <c r="L51">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="M51">
-        <v>5.2619999999999996</v>
-      </c>
-      <c r="P51">
-        <v>46</v>
-      </c>
-      <c r="R51" s="1">
-        <v>44799.104166666664</v>
-      </c>
-      <c r="S51">
-        <v>3.5</v>
-      </c>
-      <c r="T51">
-        <v>1.131</v>
-      </c>
-      <c r="U51">
-        <v>5.4470000000000001</v>
-      </c>
-      <c r="X51">
-        <v>46</v>
-      </c>
-      <c r="Z51" s="1">
-        <v>44799.104166666664</v>
-      </c>
-      <c r="AA51">
-        <v>3.5</v>
-      </c>
-      <c r="AB51">
-        <v>2.3849999999999998</v>
-      </c>
-      <c r="AC51">
-        <v>5.1509999999999998</v>
-      </c>
-      <c r="AF51">
-        <v>46</v>
-      </c>
-      <c r="AH51" s="1">
-        <v>44799.104166666664</v>
-      </c>
-      <c r="AI51">
-        <v>3.5</v>
-      </c>
-      <c r="AJ51">
-        <v>1.6339999999999999</v>
-      </c>
-      <c r="AK51">
-        <v>9.2449999999999992</v>
-      </c>
-      <c r="AN51">
-        <v>46</v>
-      </c>
-      <c r="AP51" s="1">
-        <v>44799.104166666664</v>
-      </c>
-      <c r="AQ51">
-        <v>3.5</v>
-      </c>
-      <c r="AR51">
-        <v>1.0089999999999999</v>
-      </c>
-      <c r="AS51">
-        <v>4.3070000000000004</v>
-      </c>
-    </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>47</v>
-      </c>
-      <c r="C52" s="1">
-        <v>44802.666666666664</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52">
-        <v>7.8079999999999997E-2</v>
-      </c>
-      <c r="F52">
-        <v>0.24410000000000001</v>
-      </c>
-      <c r="H52">
-        <v>47</v>
-      </c>
-      <c r="J52" s="1">
-        <v>44802.666666666664</v>
-      </c>
-      <c r="K52">
-        <v>3</v>
-      </c>
-      <c r="L52">
-        <v>1.141</v>
-      </c>
-      <c r="M52">
-        <v>4.2229999999999999</v>
-      </c>
-      <c r="P52">
-        <v>47</v>
-      </c>
-      <c r="R52" s="1">
-        <v>44802.666666666664</v>
-      </c>
-      <c r="S52">
-        <v>3</v>
-      </c>
-      <c r="T52">
-        <v>3.9809999999999999</v>
-      </c>
-      <c r="U52">
-        <v>17.41</v>
-      </c>
-      <c r="X52">
-        <v>47</v>
-      </c>
-      <c r="Z52" s="1">
-        <v>44802.666666666664</v>
-      </c>
-      <c r="AA52">
-        <v>3</v>
-      </c>
-      <c r="AB52">
-        <v>22.76</v>
-      </c>
-      <c r="AC52">
-        <v>32.229999999999997</v>
-      </c>
-      <c r="AF52">
-        <v>47</v>
-      </c>
-      <c r="AH52" s="1">
-        <v>44802.666666666664</v>
-      </c>
-      <c r="AI52">
-        <v>3</v>
-      </c>
-      <c r="AJ52">
-        <v>3.9380000000000002</v>
-      </c>
-      <c r="AK52">
-        <v>17.47</v>
-      </c>
-      <c r="AN52">
-        <v>47</v>
-      </c>
-      <c r="AP52" s="1">
-        <v>44802.666666666664</v>
-      </c>
-      <c r="AQ52">
-        <v>3</v>
-      </c>
-      <c r="AR52">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="AS52">
-        <v>21.1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>48</v>
-      </c>
-      <c r="C53" s="1">
-        <v>44808.083333333336</v>
-      </c>
-      <c r="D53">
-        <v>4.25</v>
-      </c>
-      <c r="E53">
-        <v>7.1709999999999996E-2</v>
-      </c>
-      <c r="F53">
-        <v>9.7159999999999996E-2</v>
-      </c>
-      <c r="H53">
-        <v>48</v>
-      </c>
-      <c r="J53" s="1">
-        <v>44808.083333333336</v>
-      </c>
-      <c r="K53">
-        <v>4.25</v>
-      </c>
-      <c r="L53">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="M53">
-        <v>1.1020000000000001</v>
-      </c>
-      <c r="P53">
-        <v>48</v>
-      </c>
-      <c r="R53" s="1">
-        <v>44808.083333333336</v>
-      </c>
-      <c r="S53">
-        <v>4.25</v>
-      </c>
-      <c r="T53">
-        <v>1.3120000000000001</v>
-      </c>
-      <c r="U53">
-        <v>2.423</v>
-      </c>
-      <c r="X53">
-        <v>48</v>
-      </c>
-      <c r="Z53" s="1">
-        <v>44808.083333333336</v>
-      </c>
-      <c r="AA53">
-        <v>4.25</v>
-      </c>
-      <c r="AB53">
-        <v>8.15</v>
-      </c>
-      <c r="AC53">
-        <v>9.7710000000000008</v>
-      </c>
-      <c r="AF53">
-        <v>48</v>
-      </c>
-      <c r="AH53" s="1">
-        <v>44808.083333333336</v>
-      </c>
-      <c r="AI53">
-        <v>4.25</v>
-      </c>
-      <c r="AJ53">
-        <v>2.4020000000000001</v>
-      </c>
-      <c r="AK53">
-        <v>2.8090000000000002</v>
-      </c>
-      <c r="AN53">
-        <v>48</v>
-      </c>
-      <c r="AP53" s="1">
-        <v>44808.083333333336</v>
-      </c>
-      <c r="AQ53">
-        <v>4.25</v>
-      </c>
-      <c r="AR53">
-        <v>2.948</v>
-      </c>
-      <c r="AS53">
-        <v>8.3089999999999993</v>
-      </c>
-    </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>49</v>
-      </c>
-      <c r="C54" s="1">
-        <v>44809.15625</v>
-      </c>
-      <c r="D54">
-        <v>22</v>
-      </c>
-      <c r="E54">
-        <v>2.3730000000000001E-2</v>
-      </c>
-      <c r="F54">
-        <v>2.0539999999999999E-2</v>
-      </c>
-      <c r="H54">
-        <v>49</v>
-      </c>
-      <c r="J54" s="1">
-        <v>44809.15625</v>
-      </c>
-      <c r="K54">
-        <v>22</v>
-      </c>
-      <c r="L54">
-        <v>0.39539999999999997</v>
-      </c>
-      <c r="M54">
-        <v>0.44019999999999998</v>
-      </c>
-      <c r="P54">
-        <v>49</v>
-      </c>
-      <c r="R54" s="1">
-        <v>44809.15625</v>
-      </c>
-      <c r="S54">
-        <v>22</v>
-      </c>
-      <c r="T54">
-        <v>0.75939999999999996</v>
-      </c>
-      <c r="U54">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="X54">
-        <v>49</v>
-      </c>
-      <c r="Z54" s="1">
-        <v>44809.15625</v>
-      </c>
-      <c r="AA54">
-        <v>22</v>
-      </c>
-      <c r="AB54">
-        <v>3.214</v>
-      </c>
-      <c r="AC54">
-        <v>2.4590000000000001</v>
-      </c>
-      <c r="AF54">
-        <v>49</v>
-      </c>
-      <c r="AH54" s="1">
-        <v>44809.15625</v>
-      </c>
-      <c r="AI54">
-        <v>22</v>
-      </c>
-      <c r="AJ54">
-        <v>1.19</v>
-      </c>
-      <c r="AK54">
-        <v>1.1080000000000001</v>
-      </c>
-      <c r="AN54">
-        <v>49</v>
-      </c>
-      <c r="AP54" s="1">
-        <v>44809.15625</v>
-      </c>
-      <c r="AQ54">
-        <v>22</v>
-      </c>
-      <c r="AR54">
-        <v>1.5349999999999999</v>
-      </c>
-      <c r="AS54">
-        <v>2.577</v>
-      </c>
-    </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>50</v>
-      </c>
-      <c r="C55" s="1">
-        <v>44815.010416666664</v>
-      </c>
-      <c r="D55">
-        <v>9.75</v>
-      </c>
-      <c r="E55">
-        <v>6.5369999999999998E-2</v>
-      </c>
-      <c r="F55">
-        <v>5.0959999999999998E-2</v>
-      </c>
-      <c r="H55">
-        <v>50</v>
-      </c>
-      <c r="J55" s="1">
-        <v>44815.010416666664</v>
-      </c>
-      <c r="K55">
-        <v>9.75</v>
-      </c>
-      <c r="L55">
-        <v>0.95020000000000004</v>
-      </c>
-      <c r="M55">
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="P55">
-        <v>50</v>
-      </c>
-      <c r="R55" s="1">
-        <v>44815.010416666664</v>
-      </c>
-      <c r="S55">
-        <v>9.75</v>
-      </c>
-      <c r="T55">
-        <v>2.3690000000000002</v>
-      </c>
-      <c r="U55">
-        <v>3.2909999999999999</v>
-      </c>
-      <c r="X55">
-        <v>50</v>
-      </c>
-      <c r="Z55" s="1">
-        <v>44815.010416666664</v>
-      </c>
-      <c r="AA55">
-        <v>9.75</v>
-      </c>
-      <c r="AB55">
-        <v>12.7</v>
-      </c>
-      <c r="AC55">
-        <v>12.72</v>
-      </c>
-      <c r="AF55">
-        <v>50</v>
-      </c>
-      <c r="AH55" s="1">
-        <v>44815.010416666664</v>
-      </c>
-      <c r="AI55">
-        <v>9.75</v>
-      </c>
-      <c r="AJ55">
-        <v>3.5510000000000002</v>
-      </c>
-      <c r="AK55">
-        <v>3.6179999999999999</v>
-      </c>
-      <c r="AN55">
-        <v>50</v>
-      </c>
-      <c r="AP55" s="1">
-        <v>44815.010416666664</v>
-      </c>
-      <c r="AQ55">
-        <v>9.75</v>
-      </c>
-      <c r="AR55">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="AS55">
-        <v>7.6989999999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>51</v>
-      </c>
-      <c r="C56" s="1">
-        <v>44823.333333333336</v>
-      </c>
-      <c r="D56">
-        <v>5</v>
-      </c>
-      <c r="E56">
-        <v>2.8129999999999999E-2</v>
-      </c>
-      <c r="F56">
-        <v>2.5860000000000001E-2</v>
-      </c>
-      <c r="H56">
-        <v>51</v>
-      </c>
-      <c r="J56" s="1">
-        <v>44823.333333333336</v>
-      </c>
-      <c r="K56">
-        <v>5</v>
-      </c>
-      <c r="L56">
-        <v>0.4012</v>
-      </c>
-      <c r="M56">
-        <v>1.3620000000000001</v>
-      </c>
-      <c r="P56">
-        <v>51</v>
-      </c>
-      <c r="R56" s="1">
-        <v>44823.333333333336</v>
-      </c>
-      <c r="S56">
-        <v>5</v>
-      </c>
-      <c r="T56">
-        <v>1.4470000000000001</v>
-      </c>
-      <c r="U56">
-        <v>5.1369999999999996</v>
-      </c>
-      <c r="X56">
-        <v>51</v>
-      </c>
-      <c r="Z56" s="1">
-        <v>44823.333333333336</v>
-      </c>
-      <c r="AA56">
-        <v>5</v>
-      </c>
-      <c r="AB56">
-        <v>9.9290000000000003</v>
-      </c>
-      <c r="AC56">
-        <v>17</v>
-      </c>
-      <c r="AF56">
-        <v>51</v>
-      </c>
-      <c r="AH56" s="1">
-        <v>44823.333333333336</v>
-      </c>
-      <c r="AI56">
-        <v>5</v>
-      </c>
-      <c r="AJ56">
-        <v>1.3720000000000001</v>
-      </c>
-      <c r="AK56">
-        <v>2.8679999999999999</v>
-      </c>
-      <c r="AN56">
-        <v>51</v>
-      </c>
-      <c r="AP56" s="1">
-        <v>44823.333333333336</v>
-      </c>
-      <c r="AQ56">
-        <v>5</v>
-      </c>
-      <c r="AR56">
-        <v>4.968</v>
-      </c>
-      <c r="AS56">
-        <v>18.48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>52</v>
-      </c>
-      <c r="C57" s="1">
-        <v>44826.125</v>
-      </c>
-      <c r="D57">
-        <v>6</v>
-      </c>
-      <c r="E57">
-        <v>5.7680000000000002E-2</v>
-      </c>
-      <c r="F57">
-        <v>8.233E-2</v>
-      </c>
-      <c r="H57">
-        <v>52</v>
-      </c>
-      <c r="J57" s="1">
-        <v>44826.125</v>
-      </c>
-      <c r="K57">
-        <v>6</v>
-      </c>
-      <c r="L57">
-        <v>0.85270000000000001</v>
-      </c>
-      <c r="M57">
-        <v>2.0030000000000001</v>
-      </c>
-      <c r="P57">
-        <v>52</v>
-      </c>
-      <c r="R57" s="1">
-        <v>44826.125</v>
-      </c>
-      <c r="S57">
-        <v>6</v>
-      </c>
-      <c r="T57">
-        <v>1.871</v>
-      </c>
-      <c r="U57">
-        <v>9.1</v>
-      </c>
-      <c r="X57">
-        <v>52</v>
-      </c>
-      <c r="Z57" s="1">
-        <v>44826.125</v>
-      </c>
-      <c r="AA57">
-        <v>6</v>
-      </c>
-      <c r="AB57">
-        <v>8.8019999999999996</v>
-      </c>
-      <c r="AC57">
-        <v>15.01</v>
-      </c>
-      <c r="AF57">
-        <v>52</v>
-      </c>
-      <c r="AH57" s="1">
-        <v>44826.125</v>
-      </c>
-      <c r="AI57">
-        <v>6</v>
-      </c>
-      <c r="AJ57">
-        <v>2.6749999999999998</v>
-      </c>
-      <c r="AK57">
-        <v>8.6340000000000003</v>
-      </c>
-      <c r="AN57">
-        <v>52</v>
-      </c>
-      <c r="AP57" s="1">
-        <v>44826.125</v>
-      </c>
-      <c r="AQ57">
-        <v>6</v>
-      </c>
-      <c r="AR57">
-        <v>3.8660000000000001</v>
-      </c>
-      <c r="AS57">
-        <v>13.16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>53</v>
-      </c>
-      <c r="C58" s="1">
-        <v>44831.4375</v>
-      </c>
-      <c r="D58">
-        <v>10</v>
-      </c>
-      <c r="E58">
-        <v>2.64E-2</v>
-      </c>
-      <c r="F58">
-        <v>2.597E-2</v>
-      </c>
-      <c r="H58">
-        <v>53</v>
-      </c>
-      <c r="J58" s="1">
-        <v>44831.4375</v>
-      </c>
-      <c r="K58">
-        <v>10</v>
-      </c>
-      <c r="L58">
-        <v>0.34760000000000002</v>
-      </c>
-      <c r="M58">
-        <v>1.145</v>
-      </c>
-      <c r="P58">
-        <v>53</v>
-      </c>
-      <c r="R58" s="1">
-        <v>44831.4375</v>
-      </c>
-      <c r="S58">
-        <v>10</v>
-      </c>
-      <c r="T58">
-        <v>1.2070000000000001</v>
-      </c>
-      <c r="U58">
-        <v>2.339</v>
-      </c>
-      <c r="X58">
-        <v>53</v>
-      </c>
-      <c r="Z58" s="1">
-        <v>44831.4375</v>
-      </c>
-      <c r="AA58">
-        <v>10</v>
-      </c>
-      <c r="AB58">
-        <v>4.7969999999999997</v>
-      </c>
-      <c r="AC58">
-        <v>6.69</v>
-      </c>
-      <c r="AF58">
-        <v>53</v>
-      </c>
-      <c r="AH58" s="1">
-        <v>44831.4375</v>
-      </c>
-      <c r="AI58">
-        <v>10</v>
-      </c>
-      <c r="AJ58">
-        <v>1.37</v>
-      </c>
-      <c r="AK58">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="AN58">
-        <v>53</v>
-      </c>
-      <c r="AP58" s="1">
-        <v>44831.4375</v>
-      </c>
-      <c r="AQ58">
-        <v>10</v>
-      </c>
-      <c r="AR58">
-        <v>2.3380000000000001</v>
-      </c>
-      <c r="AS58">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>54</v>
-      </c>
-      <c r="C59" s="1">
-        <v>44835.166666666664</v>
-      </c>
-      <c r="D59">
-        <v>18</v>
-      </c>
-      <c r="E59">
-        <v>6.5180000000000002E-2</v>
-      </c>
-      <c r="F59">
-        <v>6.8940000000000001E-2</v>
-      </c>
-      <c r="H59">
-        <v>54</v>
-      </c>
-      <c r="J59" s="1">
-        <v>44835.166666666664</v>
-      </c>
-      <c r="K59">
-        <v>18</v>
-      </c>
-      <c r="L59">
-        <v>1.01</v>
-      </c>
-      <c r="M59">
-        <v>1.2629999999999999</v>
-      </c>
-      <c r="P59">
-        <v>54</v>
-      </c>
-      <c r="R59" s="1">
-        <v>44835.166666666664</v>
-      </c>
-      <c r="S59">
-        <v>18</v>
-      </c>
-      <c r="T59">
-        <v>2.6840000000000002</v>
-      </c>
-      <c r="U59">
-        <v>5.423</v>
-      </c>
-      <c r="X59">
-        <v>54</v>
-      </c>
-      <c r="Z59" s="1">
-        <v>44835.166666666664</v>
-      </c>
-      <c r="AA59">
-        <v>18</v>
-      </c>
-      <c r="AB59">
-        <v>13.21</v>
-      </c>
-      <c r="AC59">
-        <v>14.32</v>
-      </c>
-      <c r="AF59">
-        <v>54</v>
-      </c>
-      <c r="AH59" s="1">
-        <v>44835.166666666664</v>
-      </c>
-      <c r="AI59">
-        <v>18</v>
-      </c>
-      <c r="AJ59">
-        <v>3.1739999999999999</v>
-      </c>
-      <c r="AK59">
-        <v>9.0890000000000004</v>
-      </c>
-      <c r="AN59">
-        <v>54</v>
-      </c>
-      <c r="AP59" s="1">
-        <v>44835.166666666664</v>
-      </c>
-      <c r="AQ59">
-        <v>18</v>
-      </c>
-      <c r="AR59">
-        <v>5.601</v>
-      </c>
-      <c r="AS59">
-        <v>8.9700000000000006</v>
-      </c>
-    </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>55</v>
-      </c>
-      <c r="C60" s="1">
-        <v>44846.90625</v>
-      </c>
-      <c r="D60">
-        <v>13.75</v>
-      </c>
-      <c r="E60">
-        <v>3.3640000000000003E-2</v>
-      </c>
-      <c r="F60">
-        <v>0.10340000000000001</v>
-      </c>
-      <c r="H60">
-        <v>55</v>
-      </c>
-      <c r="J60" s="1">
-        <v>44846.90625</v>
-      </c>
-      <c r="K60">
-        <v>13.75</v>
-      </c>
-      <c r="L60">
-        <v>0.52170000000000005</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>55</v>
-      </c>
-      <c r="R60" s="1">
-        <v>44846.90625</v>
-      </c>
-      <c r="S60">
-        <v>13.75</v>
-      </c>
-      <c r="T60">
-        <v>1.486</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <v>55</v>
-      </c>
-      <c r="Z60" s="1">
-        <v>44846.90625</v>
-      </c>
-      <c r="AA60">
-        <v>13.75</v>
-      </c>
-      <c r="AB60">
-        <v>9.9480000000000004</v>
-      </c>
-      <c r="AC60">
-        <v>0</v>
-      </c>
-      <c r="AF60">
-        <v>55</v>
-      </c>
-      <c r="AH60" s="1">
-        <v>44846.90625</v>
-      </c>
-      <c r="AI60">
-        <v>13.75</v>
-      </c>
-      <c r="AJ60">
-        <v>1.8140000000000001</v>
-      </c>
-      <c r="AK60">
-        <v>0</v>
-      </c>
-      <c r="AN60">
-        <v>55</v>
-      </c>
-      <c r="AP60" s="1">
-        <v>44846.90625</v>
-      </c>
-      <c r="AQ60">
-        <v>13.75</v>
-      </c>
-      <c r="AR60">
-        <v>4.2679999999999998</v>
-      </c>
-      <c r="AS60">
-        <v>7.5650000000000004</v>
-      </c>
-    </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>56</v>
-      </c>
-      <c r="C61" s="1">
-        <v>44860.322916666664</v>
-      </c>
-      <c r="D61">
-        <v>13</v>
-      </c>
-      <c r="E61">
-        <v>4.4560000000000002E-2</v>
-      </c>
-      <c r="F61">
-        <v>8.3970000000000003E-2</v>
-      </c>
-      <c r="H61">
-        <v>56</v>
-      </c>
-      <c r="J61" s="1">
-        <v>44860.322916666664</v>
-      </c>
-      <c r="K61">
-        <v>13</v>
-      </c>
-      <c r="L61">
-        <v>0.67130000000000001</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>56</v>
-      </c>
-      <c r="R61" s="1">
-        <v>44860.322916666664</v>
-      </c>
-      <c r="S61">
-        <v>13</v>
-      </c>
-      <c r="T61">
-        <v>1.861</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>56</v>
-      </c>
-      <c r="Z61" s="1">
-        <v>44860.322916666664</v>
-      </c>
-      <c r="AA61">
-        <v>13</v>
-      </c>
-      <c r="AB61">
-        <v>9.9</v>
-      </c>
-      <c r="AC61">
-        <v>0</v>
-      </c>
-      <c r="AF61">
-        <v>56</v>
-      </c>
-      <c r="AH61" s="1">
-        <v>44860.322916666664</v>
-      </c>
-      <c r="AI61">
-        <v>13</v>
-      </c>
-      <c r="AJ61">
-        <v>2.2549999999999999</v>
-      </c>
-      <c r="AK61">
-        <v>0</v>
-      </c>
-      <c r="AN61">
-        <v>56</v>
-      </c>
-      <c r="AP61" s="1">
-        <v>44860.322916666664</v>
-      </c>
-      <c r="AQ61">
-        <v>13</v>
-      </c>
-      <c r="AR61">
-        <v>4.01</v>
-      </c>
-      <c r="AS61">
-        <v>10.61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>57</v>
-      </c>
-      <c r="C62" s="1">
-        <v>44862.375</v>
-      </c>
-      <c r="D62">
-        <v>5</v>
-      </c>
-      <c r="E62">
-        <v>8.8269999999999998E-3</v>
-      </c>
-      <c r="F62">
-        <v>9.3030000000000005E-3</v>
-      </c>
-      <c r="H62">
-        <v>57</v>
-      </c>
-      <c r="J62" s="1">
-        <v>44862.375</v>
-      </c>
-      <c r="K62">
-        <v>5</v>
-      </c>
-      <c r="L62">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>57</v>
-      </c>
-      <c r="R62" s="1">
-        <v>44862.375</v>
-      </c>
-      <c r="S62">
-        <v>5</v>
-      </c>
-      <c r="T62">
-        <v>0.1767</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="X62">
-        <v>57</v>
-      </c>
-      <c r="Z62" s="1">
-        <v>44862.375</v>
-      </c>
-      <c r="AA62">
-        <v>5</v>
-      </c>
-      <c r="AB62">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="AC62">
-        <v>0</v>
-      </c>
-      <c r="AF62">
-        <v>57</v>
-      </c>
-      <c r="AH62" s="1">
-        <v>44862.375</v>
-      </c>
-      <c r="AI62">
-        <v>5</v>
-      </c>
-      <c r="AJ62">
-        <v>0.31380000000000002</v>
-      </c>
-      <c r="AK62">
-        <v>0</v>
-      </c>
-      <c r="AN62">
-        <v>57</v>
-      </c>
-      <c r="AP62" s="1">
-        <v>44862.375</v>
-      </c>
-      <c r="AQ62">
-        <v>5</v>
-      </c>
-      <c r="AR62">
-        <v>0.25259999999999999</v>
-      </c>
-      <c r="AS62">
-        <v>0.37190000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>58</v>
-      </c>
-      <c r="C63" s="1">
-        <v>44865.270833333336</v>
-      </c>
-      <c r="D63">
-        <v>5.5</v>
-      </c>
-      <c r="E63">
-        <v>3.9019999999999999E-2</v>
-      </c>
-      <c r="F63">
-        <v>4.5499999999999999E-2</v>
-      </c>
-      <c r="H63">
-        <v>58</v>
-      </c>
-      <c r="J63" s="1">
-        <v>44865.270833333336</v>
-      </c>
-      <c r="K63">
-        <v>5.5</v>
-      </c>
-      <c r="L63">
-        <v>0.54330000000000001</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>58</v>
-      </c>
-      <c r="R63" s="1">
-        <v>44865.270833333336</v>
-      </c>
-      <c r="S63">
-        <v>5.5</v>
-      </c>
-      <c r="T63">
-        <v>1.214</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <v>58</v>
-      </c>
-      <c r="Z63" s="1">
-        <v>44865.270833333336</v>
-      </c>
-      <c r="AA63">
-        <v>5.5</v>
-      </c>
-      <c r="AB63">
-        <v>6.9320000000000004</v>
-      </c>
-      <c r="AC63">
-        <v>0</v>
-      </c>
-      <c r="AF63">
-        <v>58</v>
-      </c>
-      <c r="AH63" s="1">
-        <v>44865.270833333336</v>
-      </c>
-      <c r="AI63">
-        <v>5.5</v>
-      </c>
-      <c r="AJ63">
-        <v>1.7370000000000001</v>
-      </c>
-      <c r="AK63">
-        <v>0</v>
-      </c>
-      <c r="AN63">
-        <v>58</v>
-      </c>
-      <c r="AP63" s="1">
-        <v>44865.270833333336</v>
-      </c>
-      <c r="AQ63">
-        <v>5.5</v>
-      </c>
-      <c r="AR63">
-        <v>2.8410000000000002</v>
-      </c>
-      <c r="AS63">
-        <v>4.2949999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
-      <c r="AB64" s="4"/>
-      <c r="AC64" s="4"/>
-      <c r="AJ64" s="4"/>
-      <c r="AK64" s="4"/>
-      <c r="AR64" s="4"/>
-      <c r="AS64" s="4"/>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F65" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>